--- a/first-atlas/producao_2025-11.xlsx
+++ b/first-atlas/producao_2025-11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0752E00-DB10-4269-BE47-0C4BE297A028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE54504-74A3-43C3-A049-9B842716DFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{3FA0812B-7F53-402D-BAE5-61E81C02CB4E}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3FA0812B-7F53-402D-BAE5-61E81C02CB4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4331" uniqueCount="1775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4366" uniqueCount="1789">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -5364,6 +5364,48 @@
   </si>
   <si>
     <t>BAR E SOCIETY LAS VEGAS LTDA</t>
+  </si>
+  <si>
+    <t>14700906000123</t>
+  </si>
+  <si>
+    <t>SO UM DONO LTDA</t>
+  </si>
+  <si>
+    <t>57180252000167</t>
+  </si>
+  <si>
+    <t>XAVIER COMERCIAL LTDA</t>
+  </si>
+  <si>
+    <t>53984314000132</t>
+  </si>
+  <si>
+    <t>VIANNA TERAPIAS INTEGRADAS LTDA</t>
+  </si>
+  <si>
+    <t>43220002000107</t>
+  </si>
+  <si>
+    <t>J F IMPORTS LTDA</t>
+  </si>
+  <si>
+    <t>41354665000180</t>
+  </si>
+  <si>
+    <t>CR AUDIO PRODUCOES LTDA</t>
+  </si>
+  <si>
+    <t>61060494000194</t>
+  </si>
+  <si>
+    <t>MJ RESTAURANTE ARACATUBA LTDA</t>
+  </si>
+  <si>
+    <t>59045375000110</t>
+  </si>
+  <si>
+    <t>RHAMAR EMPREENDIMENTOS LTDA</t>
   </si>
 </sst>
 </file>
@@ -5735,10 +5777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCD3CE2-DBA2-4F4F-B6A3-11EE884EA727}">
-  <dimension ref="A1:F866"/>
+  <dimension ref="A1:F873"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A840" workbookViewId="0">
-      <selection activeCell="A866" sqref="A866"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8364,7 +8406,7 @@
         <v>9</v>
       </c>
       <c r="F131" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -8884,7 +8926,7 @@
         <v>27</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -8904,7 +8946,7 @@
         <v>27</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -10824,7 +10866,7 @@
         <v>9</v>
       </c>
       <c r="F254" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -11024,7 +11066,7 @@
         <v>9</v>
       </c>
       <c r="F264" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -15264,7 +15306,7 @@
         <v>9</v>
       </c>
       <c r="F476" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
@@ -17044,7 +17086,7 @@
         <v>9</v>
       </c>
       <c r="F565" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
@@ -17424,7 +17466,7 @@
         <v>9</v>
       </c>
       <c r="F584" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
@@ -17744,7 +17786,7 @@
         <v>9</v>
       </c>
       <c r="F600" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
@@ -19184,7 +19226,7 @@
         <v>94</v>
       </c>
       <c r="F672" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
@@ -19704,7 +19746,7 @@
         <v>27</v>
       </c>
       <c r="F698" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.25">
@@ -20464,7 +20506,7 @@
         <v>27</v>
       </c>
       <c r="F736" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
@@ -21004,7 +21046,7 @@
         <v>27</v>
       </c>
       <c r="F763" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
@@ -21064,7 +21106,7 @@
         <v>731</v>
       </c>
       <c r="F766" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.25">
@@ -21084,7 +21126,7 @@
         <v>94</v>
       </c>
       <c r="F767" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.25">
@@ -21224,7 +21266,7 @@
         <v>9</v>
       </c>
       <c r="F774" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
@@ -21424,7 +21466,7 @@
         <v>9</v>
       </c>
       <c r="F784" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.25">
@@ -21504,7 +21546,7 @@
         <v>9</v>
       </c>
       <c r="F788" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.25">
@@ -21684,7 +21726,7 @@
         <v>27</v>
       </c>
       <c r="F797" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.25">
@@ -21704,7 +21746,7 @@
         <v>27</v>
       </c>
       <c r="F798" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.25">
@@ -21944,7 +21986,7 @@
         <v>94</v>
       </c>
       <c r="F810" t="s">
-        <v>14</v>
+        <v>294</v>
       </c>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.25">
@@ -21984,7 +22026,7 @@
         <v>731</v>
       </c>
       <c r="F812" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.25">
@@ -22004,7 +22046,7 @@
         <v>27</v>
       </c>
       <c r="F813" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.25">
@@ -22044,7 +22086,7 @@
         <v>27</v>
       </c>
       <c r="F815" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.25">
@@ -22084,7 +22126,7 @@
         <v>94</v>
       </c>
       <c r="F817" t="s">
-        <v>14</v>
+        <v>294</v>
       </c>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.25">
@@ -22124,7 +22166,7 @@
         <v>27</v>
       </c>
       <c r="F819" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.25">
@@ -22144,7 +22186,7 @@
         <v>94</v>
       </c>
       <c r="F820" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.25">
@@ -22244,7 +22286,7 @@
         <v>731</v>
       </c>
       <c r="F825" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.25">
@@ -22324,7 +22366,7 @@
         <v>94</v>
       </c>
       <c r="F829" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.25">
@@ -22344,7 +22386,7 @@
         <v>27</v>
       </c>
       <c r="F830" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.25">
@@ -22404,7 +22446,7 @@
         <v>27</v>
       </c>
       <c r="F833" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.25">
@@ -22464,7 +22506,7 @@
         <v>27</v>
       </c>
       <c r="F836" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.25">
@@ -22564,7 +22606,7 @@
         <v>27</v>
       </c>
       <c r="F841" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.25">
@@ -22584,7 +22626,7 @@
         <v>9</v>
       </c>
       <c r="F842" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.25">
@@ -22664,7 +22706,7 @@
         <v>9</v>
       </c>
       <c r="F846" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
@@ -22684,7 +22726,7 @@
         <v>688</v>
       </c>
       <c r="F847" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.25">
@@ -22744,7 +22786,7 @@
         <v>731</v>
       </c>
       <c r="F850" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.25">
@@ -22884,7 +22926,7 @@
         <v>27</v>
       </c>
       <c r="F857" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.25">
@@ -22964,7 +23006,7 @@
         <v>9</v>
       </c>
       <c r="F861" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.25">
@@ -23024,7 +23066,7 @@
         <v>9</v>
       </c>
       <c r="F864" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.25">
@@ -23064,6 +23106,146 @@
         <v>9</v>
       </c>
       <c r="F866" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A867" s="1">
+        <v>45978</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C867" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D867" t="s">
+        <v>44</v>
+      </c>
+      <c r="E867" t="s">
+        <v>9</v>
+      </c>
+      <c r="F867" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A868" s="1">
+        <v>45978</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C868" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D868" t="s">
+        <v>34</v>
+      </c>
+      <c r="E868" t="s">
+        <v>9</v>
+      </c>
+      <c r="F868" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A869" s="1">
+        <v>45978</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C869" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D869" t="s">
+        <v>31</v>
+      </c>
+      <c r="E869" t="s">
+        <v>9</v>
+      </c>
+      <c r="F869" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A870" s="1">
+        <v>45978</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C870" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D870" t="s">
+        <v>44</v>
+      </c>
+      <c r="E870" t="s">
+        <v>9</v>
+      </c>
+      <c r="F870" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A871" s="1">
+        <v>45978</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C871" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D871" t="s">
+        <v>74</v>
+      </c>
+      <c r="E871" t="s">
+        <v>9</v>
+      </c>
+      <c r="F871" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A872" s="1">
+        <v>45978</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C872" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D872" t="s">
+        <v>74</v>
+      </c>
+      <c r="E872" t="s">
+        <v>9</v>
+      </c>
+      <c r="F872" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A873" s="1">
+        <v>45978</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C873" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D873" t="s">
+        <v>13</v>
+      </c>
+      <c r="E873" t="s">
+        <v>9</v>
+      </c>
+      <c r="F873" t="s">
         <v>28</v>
       </c>
     </row>

--- a/first-atlas/producao_2025-11.xlsx
+++ b/first-atlas/producao_2025-11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE54504-74A3-43C3-A049-9B842716DFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336E8CD0-509A-498B-AA41-98901D57AFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3FA0812B-7F53-402D-BAE5-61E81C02CB4E}"/>
   </bookViews>
@@ -5779,8 +5779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCD3CE2-DBA2-4F4F-B6A3-11EE884EA727}">
   <dimension ref="A1:F873"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A853" workbookViewId="0">
+      <selection activeCell="A870" sqref="A870"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/first-atlas/producao_2025-11.xlsx
+++ b/first-atlas/producao_2025-11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B8E999-A4F2-4D2A-8CC7-114F6DBED2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A09536-F558-434B-A579-ED1B49B935EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3FA0812B-7F53-402D-BAE5-61E81C02CB4E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4811" uniqueCount="1970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4846" uniqueCount="1984">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -5949,6 +5949,48 @@
   </si>
   <si>
     <t>GREGS ESTETICA CANINA LTDA</t>
+  </si>
+  <si>
+    <t>61382892000127</t>
+  </si>
+  <si>
+    <t>SAYRA RAVANNA DOS SANTOS SILVA</t>
+  </si>
+  <si>
+    <t>60776376000114</t>
+  </si>
+  <si>
+    <t>J C DA SILVA EQUIPAMENTOS ODONTOLOGICOS E MANUTENCAO LTDA</t>
+  </si>
+  <si>
+    <t>63640885000103</t>
+  </si>
+  <si>
+    <t>WILIANS JUNIOR SILVA</t>
+  </si>
+  <si>
+    <t>43436607000121</t>
+  </si>
+  <si>
+    <t>NOVEDOIS GASTRO PUB LTDA</t>
+  </si>
+  <si>
+    <t>48633560000100</t>
+  </si>
+  <si>
+    <t>C  S LOCACOES TRANSPORTE E LOGISTICA LTDA</t>
+  </si>
+  <si>
+    <t>50908951000131</t>
+  </si>
+  <si>
+    <t>V PEREIRA PINTURAS LTDA</t>
+  </si>
+  <si>
+    <t>61274473000171</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRISCILLA ALMEIDA SOARES</t>
   </si>
 </sst>
 </file>
@@ -6320,10 +6362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCD3CE2-DBA2-4F4F-B6A3-11EE884EA727}">
-  <dimension ref="A1:F962"/>
+  <dimension ref="A1:F969"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A949" workbookViewId="0">
+      <selection activeCell="A969" sqref="A969"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6389,7 +6431,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6417,19 +6459,19 @@
         <v>45962</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6437,10 +6479,10 @@
         <v>45962</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
@@ -6449,7 +6491,7 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6457,13 +6499,13 @@
         <v>45962</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -6477,13 +6519,13 @@
         <v>45962</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -6497,19 +6539,19 @@
         <v>45962</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6517,19 +6559,19 @@
         <v>45962</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6537,13 +6579,13 @@
         <v>45962</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -6557,13 +6599,13 @@
         <v>45962</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -6577,19 +6619,19 @@
         <v>45962</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6597,36 +6639,36 @@
         <v>45962</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45962</v>
+        <v>45964</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
         <v>28</v>
@@ -6634,13 +6676,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45962</v>
+        <v>45964</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
@@ -6654,59 +6696,59 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45962</v>
+        <v>45964</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45962</v>
+        <v>45964</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45962</v>
+        <v>45964</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>977</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
         <v>28</v>
@@ -6714,59 +6756,59 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45962</v>
+        <v>45964</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45962</v>
+        <v>45964</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45962</v>
+        <v>45964</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>977</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -6774,22 +6816,22 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45962</v>
+        <v>45964</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -11129,7 +11171,7 @@
         <v>27</v>
       </c>
       <c r="F240" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -11389,7 +11431,7 @@
         <v>9</v>
       </c>
       <c r="F253" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -12429,7 +12471,7 @@
         <v>9</v>
       </c>
       <c r="F305" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -15469,7 +15511,7 @@
         <v>9</v>
       </c>
       <c r="F457" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -16289,7 +16331,7 @@
         <v>22</v>
       </c>
       <c r="F498" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
@@ -17589,7 +17631,7 @@
         <v>9</v>
       </c>
       <c r="F563" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
@@ -17809,7 +17851,7 @@
         <v>9</v>
       </c>
       <c r="F574" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
@@ -18589,7 +18631,7 @@
         <v>27</v>
       </c>
       <c r="F613" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
@@ -18929,7 +18971,7 @@
         <v>9</v>
       </c>
       <c r="F630" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
@@ -19009,7 +19051,7 @@
         <v>9</v>
       </c>
       <c r="F634" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
@@ -19869,7 +19911,7 @@
         <v>22</v>
       </c>
       <c r="F677" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
@@ -20749,7 +20791,7 @@
         <v>9</v>
       </c>
       <c r="F721" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.25">
@@ -21609,7 +21651,7 @@
         <v>731</v>
       </c>
       <c r="F764" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.25">
@@ -21969,7 +22011,7 @@
         <v>9</v>
       </c>
       <c r="F782" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.25">
@@ -23769,7 +23811,7 @@
         <v>9</v>
       </c>
       <c r="F872" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.25">
@@ -24109,7 +24151,7 @@
         <v>731</v>
       </c>
       <c r="F889" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.25">
@@ -24149,7 +24191,7 @@
         <v>9</v>
       </c>
       <c r="F891" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.25">
@@ -24189,7 +24231,7 @@
         <v>9</v>
       </c>
       <c r="F893" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.25">
@@ -24229,7 +24271,7 @@
         <v>9</v>
       </c>
       <c r="F895" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.25">
@@ -24529,7 +24571,7 @@
         <v>9</v>
       </c>
       <c r="F910" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.25">
@@ -24729,7 +24771,7 @@
         <v>9</v>
       </c>
       <c r="F920" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.25">
@@ -25069,7 +25111,7 @@
         <v>9</v>
       </c>
       <c r="F937" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.25">
@@ -25089,7 +25131,7 @@
         <v>27</v>
       </c>
       <c r="F938" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.25">
@@ -25169,7 +25211,7 @@
         <v>9</v>
       </c>
       <c r="F942" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.25">
@@ -25569,7 +25611,147 @@
         <v>9</v>
       </c>
       <c r="F962" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A963" s="1">
+        <v>45979</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C963" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D963" t="s">
+        <v>425</v>
+      </c>
+      <c r="E963" t="s">
+        <v>426</v>
+      </c>
+      <c r="F963" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A964" s="1">
+        <v>45979</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C964" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D964" t="s">
+        <v>17</v>
+      </c>
+      <c r="E964" t="s">
+        <v>9</v>
+      </c>
+      <c r="F964" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A965" s="1">
+        <v>45979</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C965" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D965" t="s">
+        <v>645</v>
+      </c>
+      <c r="E965" t="s">
+        <v>27</v>
+      </c>
+      <c r="F965" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A966" s="1">
+        <v>45979</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C966" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D966" t="s">
+        <v>116</v>
+      </c>
+      <c r="E966" t="s">
+        <v>27</v>
+      </c>
+      <c r="F966" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A967" s="1">
+        <v>45979</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C967" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D967" t="s">
+        <v>17</v>
+      </c>
+      <c r="E967" t="s">
+        <v>9</v>
+      </c>
+      <c r="F967" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A968" s="1">
+        <v>45979</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C968" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D968" t="s">
+        <v>50</v>
+      </c>
+      <c r="E968" t="s">
+        <v>27</v>
+      </c>
+      <c r="F968" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A969" s="1">
+        <v>45979</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C969" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D969" t="s">
+        <v>8</v>
+      </c>
+      <c r="E969" t="s">
+        <v>9</v>
+      </c>
+      <c r="F969" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/first-atlas/producao_2025-11.xlsx
+++ b/first-atlas/producao_2025-11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B90405-0A2F-435C-8865-8B6D93D66C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF01DEF-CCBD-419F-9C87-F47E645CF335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{3FA0812B-7F53-402D-BAE5-61E81C02CB4E}"/>
   </bookViews>
@@ -7801,8 +7801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCD3CE2-DBA2-4F4F-B6A3-11EE884EA727}">
   <dimension ref="A1:F1208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A1181" workbookViewId="0">
+      <selection activeCell="A1208" sqref="A1208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7931,7 +7931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45964</v>
       </c>

--- a/first-atlas/producao_2025-11.xlsx
+++ b/first-atlas/producao_2025-11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF01DEF-CCBD-419F-9C87-F47E645CF335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8977CC3F-BCCE-4907-A882-385682BFD0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{3FA0812B-7F53-402D-BAE5-61E81C02CB4E}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3FA0812B-7F53-402D-BAE5-61E81C02CB4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6041" uniqueCount="2463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6231" uniqueCount="2539">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -7428,6 +7428,234 @@
   </si>
   <si>
     <t>TAIS VIATRONSKI SOLUCOES EM ARQUITETURA E ENGENHARIA LTDA</t>
+  </si>
+  <si>
+    <t>63741793000110</t>
+  </si>
+  <si>
+    <t>FREITAS HOMES MATERIAIS DE CONSTRUCAO E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>38002436000192</t>
+  </si>
+  <si>
+    <t>WS GESTAO E ENGENHARIA LTDA</t>
+  </si>
+  <si>
+    <t>59449979000122</t>
+  </si>
+  <si>
+    <t>ARC TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>63597114000180</t>
+  </si>
+  <si>
+    <t>A.F.C. LTDA</t>
+  </si>
+  <si>
+    <t>44214221000138</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO DE SOUZA DIAS SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>44365406000143</t>
+  </si>
+  <si>
+    <t>WO DESENVOLVIMENTO DE PROGRAMAS LTDA</t>
+  </si>
+  <si>
+    <t>34298275000175</t>
+  </si>
+  <si>
+    <t>TRACO REPRESENTACOES E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>58801223000138</t>
+  </si>
+  <si>
+    <t>RAPHAEL CIPRIANO BORGES CONSTRUCAO E SERVICOS</t>
+  </si>
+  <si>
+    <t>63759754000140</t>
+  </si>
+  <si>
+    <t>CESAR ALEXANDER BELTRAO RIBAS SOARES SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>61326197000148</t>
+  </si>
+  <si>
+    <t>DOMARA ARQUITETURA E CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>50291965000159</t>
+  </si>
+  <si>
+    <t>HD5.DEV CONSULTORIA LTDA</t>
+  </si>
+  <si>
+    <t>47879563000165</t>
+  </si>
+  <si>
+    <t>ASSISTENCIA ODONTOLOGICA ORTHO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>48889701000150</t>
+  </si>
+  <si>
+    <t>HOFF'S OFICINA MECANICA DIESEL ESPECIALIZADA LTDA</t>
+  </si>
+  <si>
+    <t>51774737000100</t>
+  </si>
+  <si>
+    <t>E.C. DE LIMA SCHWIND LTDA</t>
+  </si>
+  <si>
+    <t>63456621000102</t>
+  </si>
+  <si>
+    <t>ELOGAS E DISTRIBUIDORA DE BEBIDAS LTDA</t>
+  </si>
+  <si>
+    <t>42610417000116</t>
+  </si>
+  <si>
+    <t>ESTUDIO DA FACE ODONTOLOGIA LTDA</t>
+  </si>
+  <si>
+    <t>58935447000132</t>
+  </si>
+  <si>
+    <t>TERRA FERTIL ADUBO FERTILIZANTES LTDA</t>
+  </si>
+  <si>
+    <t>42572994000160</t>
+  </si>
+  <si>
+    <t>IR COMERCIAL DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>63077407000137</t>
+  </si>
+  <si>
+    <t>MARCELO CONTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>54928722000130</t>
+  </si>
+  <si>
+    <t>54.928.722 ISRAEL RIBEIRO BISPO</t>
+  </si>
+  <si>
+    <t>07817011000108</t>
+  </si>
+  <si>
+    <t>FABIO TIBURCIO CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>54349814000165</t>
+  </si>
+  <si>
+    <t>M. DA S. LOBATO LTDA</t>
+  </si>
+  <si>
+    <t>63492825000190</t>
+  </si>
+  <si>
+    <t>TR CACAMBAS LTDA</t>
+  </si>
+  <si>
+    <t>63681140000192</t>
+  </si>
+  <si>
+    <t>FELKOR CEREAIS E TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>63661764000148</t>
+  </si>
+  <si>
+    <t>TSK CONSULTORIA EMPRESARIAL LTDA</t>
+  </si>
+  <si>
+    <t>63666585000101</t>
+  </si>
+  <si>
+    <t>DIAS GOLD COMERCIO DIGITAL LTDA</t>
+  </si>
+  <si>
+    <t>49361856000181</t>
+  </si>
+  <si>
+    <t>REABILITAR ODONTOLOGIA LTDA.</t>
+  </si>
+  <si>
+    <t>63661770000103</t>
+  </si>
+  <si>
+    <t>GABI BELTRAO NUTRICAO LTDA</t>
+  </si>
+  <si>
+    <t>63173395000144</t>
+  </si>
+  <si>
+    <t>CARVOARIA DO CONDE LTDA</t>
+  </si>
+  <si>
+    <t>59328942000146</t>
+  </si>
+  <si>
+    <t>RAFAEL SILAS ARAUJO SILVA</t>
+  </si>
+  <si>
+    <t>18959634000131</t>
+  </si>
+  <si>
+    <t>PINHEIRO &amp; XAVIER POUSADA LTDA</t>
+  </si>
+  <si>
+    <t>63286367000133</t>
+  </si>
+  <si>
+    <t>DEPIERI LOG LTDA</t>
+  </si>
+  <si>
+    <t>55006479000165</t>
+  </si>
+  <si>
+    <t>VOOX ENGENHARIA LTDA</t>
+  </si>
+  <si>
+    <t>63487323000171</t>
+  </si>
+  <si>
+    <t>AFK PROMOTORA DE VENDAS LTDA</t>
+  </si>
+  <si>
+    <t>58092884000131</t>
+  </si>
+  <si>
+    <t>S M DA SILVA EDUCACAO</t>
+  </si>
+  <si>
+    <t>63121366000139</t>
+  </si>
+  <si>
+    <t>JOAO LUCAS NERY SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>63455740000132</t>
+  </si>
+  <si>
+    <t>DUPLEX ENGENHARIA LTDA</t>
+  </si>
+  <si>
+    <t>53140589000190</t>
+  </si>
+  <si>
+    <t>MAIS SAUDE VIDA LTDA</t>
   </si>
 </sst>
 </file>
@@ -7799,10 +8027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCD3CE2-DBA2-4F4F-B6A3-11EE884EA727}">
-  <dimension ref="A1:F1208"/>
+  <dimension ref="A1:F1246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1181" workbookViewId="0">
-      <selection activeCell="A1208" sqref="A1208"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8008,7 +8236,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8528,7 +8756,7 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -10528,7 +10756,7 @@
         <v>9</v>
       </c>
       <c r="F136" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -10948,7 +11176,7 @@
         <v>27</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -11168,7 +11396,7 @@
         <v>27</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -12128,7 +12356,7 @@
         <v>27</v>
       </c>
       <c r="F216" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -12488,7 +12716,7 @@
         <v>9</v>
       </c>
       <c r="F234" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -14148,7 +14376,7 @@
         <v>27</v>
       </c>
       <c r="F317" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -14188,7 +14416,7 @@
         <v>27</v>
       </c>
       <c r="F319" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -16808,7 +17036,7 @@
         <v>9</v>
       </c>
       <c r="F450" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
@@ -17368,7 +17596,7 @@
         <v>94</v>
       </c>
       <c r="F478" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
@@ -18128,7 +18356,7 @@
         <v>9</v>
       </c>
       <c r="F516" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
@@ -20268,7 +20496,7 @@
         <v>9</v>
       </c>
       <c r="F623" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
@@ -21588,7 +21816,7 @@
         <v>27</v>
       </c>
       <c r="F689" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.25">
@@ -23748,7 +23976,7 @@
         <v>9</v>
       </c>
       <c r="F797" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.25">
@@ -24168,7 +24396,7 @@
         <v>27</v>
       </c>
       <c r="F818" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.25">
@@ -24228,7 +24456,7 @@
         <v>27</v>
       </c>
       <c r="F821" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.25">
@@ -26688,7 +26916,7 @@
         <v>9</v>
       </c>
       <c r="F944" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.25">
@@ -29668,7 +29896,7 @@
         <v>27</v>
       </c>
       <c r="F1093" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1094" spans="1:6" x14ac:dyDescent="0.25">
@@ -30748,7 +30976,7 @@
         <v>9</v>
       </c>
       <c r="F1147" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1148" spans="1:6" x14ac:dyDescent="0.25">
@@ -30768,7 +30996,7 @@
         <v>9</v>
       </c>
       <c r="F1148" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1149" spans="1:6" x14ac:dyDescent="0.25">
@@ -30868,7 +31096,7 @@
         <v>688</v>
       </c>
       <c r="F1153" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1154" spans="1:6" x14ac:dyDescent="0.25">
@@ -30948,7 +31176,7 @@
         <v>27</v>
       </c>
       <c r="F1157" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1158" spans="1:6" x14ac:dyDescent="0.25">
@@ -30988,7 +31216,7 @@
         <v>9</v>
       </c>
       <c r="F1159" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1160" spans="1:6" x14ac:dyDescent="0.25">
@@ -31048,7 +31276,7 @@
         <v>27</v>
       </c>
       <c r="F1162" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1163" spans="1:6" x14ac:dyDescent="0.25">
@@ -31108,7 +31336,7 @@
         <v>9</v>
       </c>
       <c r="F1165" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1166" spans="1:6" x14ac:dyDescent="0.25">
@@ -31248,7 +31476,7 @@
         <v>27</v>
       </c>
       <c r="F1172" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1173" spans="1:6" x14ac:dyDescent="0.25">
@@ -31348,7 +31576,7 @@
         <v>27</v>
       </c>
       <c r="F1177" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1178" spans="1:6" x14ac:dyDescent="0.25">
@@ -31368,7 +31596,7 @@
         <v>9</v>
       </c>
       <c r="F1178" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1179" spans="1:6" x14ac:dyDescent="0.25">
@@ -31388,7 +31616,7 @@
         <v>22</v>
       </c>
       <c r="F1179" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1180" spans="1:6" x14ac:dyDescent="0.25">
@@ -31548,7 +31776,7 @@
         <v>27</v>
       </c>
       <c r="F1187" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1188" spans="1:6" x14ac:dyDescent="0.25">
@@ -31608,7 +31836,7 @@
         <v>9</v>
       </c>
       <c r="F1190" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1191" spans="1:6" x14ac:dyDescent="0.25">
@@ -31628,7 +31856,7 @@
         <v>9</v>
       </c>
       <c r="F1191" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1192" spans="1:6" x14ac:dyDescent="0.25">
@@ -31728,7 +31956,7 @@
         <v>27</v>
       </c>
       <c r="F1196" t="s">
-        <v>14</v>
+        <v>294</v>
       </c>
     </row>
     <row r="1197" spans="1:6" x14ac:dyDescent="0.25">
@@ -31808,7 +32036,7 @@
         <v>9</v>
       </c>
       <c r="F1200" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1201" spans="1:6" x14ac:dyDescent="0.25">
@@ -31848,7 +32076,7 @@
         <v>9</v>
       </c>
       <c r="F1202" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1203" spans="1:6" x14ac:dyDescent="0.25">
@@ -31928,7 +32156,7 @@
         <v>27</v>
       </c>
       <c r="F1206" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1207" spans="1:6" x14ac:dyDescent="0.25">
@@ -31968,6 +32196,766 @@
         <v>9</v>
       </c>
       <c r="F1208" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1209" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1209" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1210" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1210" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1211" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>2467</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1211" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1212" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1212" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1213" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>2472</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1213" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1214" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1214" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1215" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1215" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1216" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1216" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1217" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1218" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1218" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1219" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1219" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1220" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>2486</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1220" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1221" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>2488</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1221" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1222" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1222" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1223" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>2491</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1223" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1224" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>2494</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1224" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1225" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1225" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1226" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>2498</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1226" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1227" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1227" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1228" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1228" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1229" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>2503</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1229" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1230" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>2506</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1230" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1231" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1231" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1232" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1232" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1233" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>2512</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1233" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1234" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1234" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1235" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1235" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1236" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>2517</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>2518</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1236" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1237" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1237" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1238" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1238" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1239" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1239" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1240" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>2526</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1240" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1241" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>2528</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>731</v>
+      </c>
+      <c r="F1241" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1242" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1242" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1243" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1244" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1244" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1245" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>2535</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>2536</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1245" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1246" s="1">
+        <v>45985</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1246" t="s">
         <v>28</v>
       </c>
     </row>

--- a/first-atlas/producao_2025-11.xlsx
+++ b/first-atlas/producao_2025-11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29522"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andreybizao\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAD8D4F-414F-44F2-AC47-ADF19F43B30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBAE2A02-AF7F-49BB-A840-5F4A48042C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{3FA0812B-7F53-402D-BAE5-61E81C02CB4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{3FA0812B-7F53-402D-BAE5-61E81C02CB4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="2713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7045" uniqueCount="2874">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -8178,6 +8178,489 @@
   </si>
   <si>
     <t xml:space="preserve">Contrato social da empresa VOOX ENGENHARIA LTDA, atualizado e registrado no orgao competente, com a devida clausula de administracao. </t>
+  </si>
+  <si>
+    <t>61307587000170</t>
+  </si>
+  <si>
+    <t>PARADA CENTO E TRINTA LTDA</t>
+  </si>
+  <si>
+    <t>60889132000148</t>
+  </si>
+  <si>
+    <t>FELIPE FREITAS FLEURY</t>
+  </si>
+  <si>
+    <t>60841172000110</t>
+  </si>
+  <si>
+    <t>URBANO STORE LTDA</t>
+  </si>
+  <si>
+    <t>48905858000121</t>
+  </si>
+  <si>
+    <t>DAIANE DE SOUZA AGUIAR</t>
+  </si>
+  <si>
+    <t>57754435000149</t>
+  </si>
+  <si>
+    <t>ROBSON ALEXANDRE GUEDES DE LIMA</t>
+  </si>
+  <si>
+    <t>62962437000163</t>
+  </si>
+  <si>
+    <t>RJG CONSULTORIA</t>
+  </si>
+  <si>
+    <t>61642576000147</t>
+  </si>
+  <si>
+    <t>GABRIELLA QUINTANA BUENO</t>
+  </si>
+  <si>
+    <t>52655786000189</t>
+  </si>
+  <si>
+    <t>JOSE CARLOS DOS SANTOS</t>
+  </si>
+  <si>
+    <t>62022778000159</t>
+  </si>
+  <si>
+    <t>NELDICLEIA CAMARGO ANDERSON CORDEIRO DO AMARAL</t>
+  </si>
+  <si>
+    <t>40238202000190</t>
+  </si>
+  <si>
+    <t>JOAURO SANTOS</t>
+  </si>
+  <si>
+    <t>62382758000199</t>
+  </si>
+  <si>
+    <t>REGINE OLIVIO DA SILVA</t>
+  </si>
+  <si>
+    <t>47065061000109</t>
+  </si>
+  <si>
+    <t>GML NEGOCIOS IMOBILIARIOS LTDA</t>
+  </si>
+  <si>
+    <t>14006997000100</t>
+  </si>
+  <si>
+    <t>A N FEITOSA LTDA</t>
+  </si>
+  <si>
+    <t>63109525000180</t>
+  </si>
+  <si>
+    <t>SINAI CALCADOS E ACESSORIOS LTDA</t>
+  </si>
+  <si>
+    <t>63785816000198</t>
+  </si>
+  <si>
+    <t>BRUNO TEIXEIRA ENGENHARIA DE SOFTWARE LTDA</t>
+  </si>
+  <si>
+    <t>63004058000123</t>
+  </si>
+  <si>
+    <t>D RODRIGUES LTDA</t>
+  </si>
+  <si>
+    <t>41042438000110</t>
+  </si>
+  <si>
+    <t>DOBEHAINE ALMEIDA DE OLIVEIRA &amp; CIA LTDA</t>
+  </si>
+  <si>
+    <t>49633976000190</t>
+  </si>
+  <si>
+    <t>GABRIEL VIANNA NEGOCIOS IMOBILIARIOS LTDA</t>
+  </si>
+  <si>
+    <t>53804295000115</t>
+  </si>
+  <si>
+    <t>THAIS POLL SULZBACH LTDA</t>
+  </si>
+  <si>
+    <t>63625562000140</t>
+  </si>
+  <si>
+    <t>DIETRICH GESTAO E NEGOCIOS LTDA</t>
+  </si>
+  <si>
+    <t>63675106000105</t>
+  </si>
+  <si>
+    <t>LEONARDO BAETA LACERDA DE OLIVEIRA JUNIOR</t>
+  </si>
+  <si>
+    <t>63507773000189</t>
+  </si>
+  <si>
+    <t>ESTER LIMA RODRIGUES PIMENTA SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>53280930000102</t>
+  </si>
+  <si>
+    <t>BRUNO ALVES CONSULTORIA</t>
+  </si>
+  <si>
+    <t>63646926000179</t>
+  </si>
+  <si>
+    <t>ALESSANDRA ALMEIDA CRUZ LTDA</t>
+  </si>
+  <si>
+    <t>37450984000112</t>
+  </si>
+  <si>
+    <t>FROTA FORTE TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>63750481000172</t>
+  </si>
+  <si>
+    <t>17001040000150</t>
+  </si>
+  <si>
+    <t>RAPHA SANTACRUZ PRODUCOES ARTISTICAS LTDA</t>
+  </si>
+  <si>
+    <t>52699936000156</t>
+  </si>
+  <si>
+    <t>PEDRO KISLARCK FRANCISCO JUNIOR LTDA</t>
+  </si>
+  <si>
+    <t>63455690000193</t>
+  </si>
+  <si>
+    <t>ELIAS DE SOUZA PASCHOAL</t>
+  </si>
+  <si>
+    <t>10586646000156</t>
+  </si>
+  <si>
+    <t>MASSA DE MIRA SISTEMAS DE TREINAMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>69947570000190</t>
+  </si>
+  <si>
+    <t>EDITE DE SOUZA LOPES LTDA</t>
+  </si>
+  <si>
+    <t>63711070000178</t>
+  </si>
+  <si>
+    <t>GABRIELLA SILVA DE TOLEDO MORENO SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>53795244000174</t>
+  </si>
+  <si>
+    <t>L.H.S.S.V. CONSULTORIA E ASSESSORIA LTDA</t>
+  </si>
+  <si>
+    <t>58971024000178</t>
+  </si>
+  <si>
+    <t>HOS DESTINO LIVING ADMINISTRACAO E LOCACAO DE IMOVEIS LTDA.</t>
+  </si>
+  <si>
+    <t>29315797000106</t>
+  </si>
+  <si>
+    <t>INCREASE TECNOLOGIA E MARKETING LTDA</t>
+  </si>
+  <si>
+    <t>42258279000158</t>
+  </si>
+  <si>
+    <t>GABRIELA DULLIUS LTDA</t>
+  </si>
+  <si>
+    <t>31606181000128</t>
+  </si>
+  <si>
+    <t>BEATRIZ QUINTANILHA AZEVEDO NEGOCIOS LTDA</t>
+  </si>
+  <si>
+    <t>57092508000184</t>
+  </si>
+  <si>
+    <t>J. V. S. DE MORAES LTDA</t>
+  </si>
+  <si>
+    <t>56956172000198</t>
+  </si>
+  <si>
+    <t>VIEIRA MARTINS SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>63005879000184</t>
+  </si>
+  <si>
+    <t>SIMONE SOUZA DA SILVA LTDA</t>
+  </si>
+  <si>
+    <t>04110439000128</t>
+  </si>
+  <si>
+    <t>NAMASTE ALIMENTOS ORGANICOS LTDA</t>
+  </si>
+  <si>
+    <t>29971128000184</t>
+  </si>
+  <si>
+    <t>DG FESTAS E EVENTOS LTDA</t>
+  </si>
+  <si>
+    <t>55658811000176</t>
+  </si>
+  <si>
+    <t>A S BRITO CAMA MESA E BANHO LTDA</t>
+  </si>
+  <si>
+    <t>52335054000101</t>
+  </si>
+  <si>
+    <t>ENGEFISCA - ENGENHARIA E FISCALIZACAO DE OBRAS LTDA</t>
+  </si>
+  <si>
+    <t>33574800000175</t>
+  </si>
+  <si>
+    <t>R E PRIVAT LABEL LTDA</t>
+  </si>
+  <si>
+    <t>55312464000125</t>
+  </si>
+  <si>
+    <t>ALDO PROJETOS E NEGOCIOS IMOBILIARIOS LTDA</t>
+  </si>
+  <si>
+    <t>49334275000150</t>
+  </si>
+  <si>
+    <t>CLINICA DRA KENIA ALVES LTDA</t>
+  </si>
+  <si>
+    <t>51162513000130</t>
+  </si>
+  <si>
+    <t>CLINICA VETERINARIA SAO GERALDO LTDA</t>
+  </si>
+  <si>
+    <t>63521610000150</t>
+  </si>
+  <si>
+    <t>A30 BAR E RESTAURANTE LTDA</t>
+  </si>
+  <si>
+    <t>54170841000176</t>
+  </si>
+  <si>
+    <t>PNOVE TRANSPORTES E LOGISTICA LTDA</t>
+  </si>
+  <si>
+    <t>48275227000176</t>
+  </si>
+  <si>
+    <t>AMBAR GESTAO E CONSULTORIA LTDA</t>
+  </si>
+  <si>
+    <t>59683859000195</t>
+  </si>
+  <si>
+    <t>JAIRO COELHO LTDA</t>
+  </si>
+  <si>
+    <t>07312188000152</t>
+  </si>
+  <si>
+    <t>SOLAR BRITO &amp; MINERADORA LTDA</t>
+  </si>
+  <si>
+    <t>59783288000160</t>
+  </si>
+  <si>
+    <t>MRB SOLUCOES EM ENGENHARIA LTDA</t>
+  </si>
+  <si>
+    <t>09368343000188</t>
+  </si>
+  <si>
+    <t>LUIZ AUGUSTO DE SOUZA PEREIRA LTDA</t>
+  </si>
+  <si>
+    <t>63273229000110</t>
+  </si>
+  <si>
+    <t>BRITO BRINQUEDOS LTDA</t>
+  </si>
+  <si>
+    <t>59280002000124</t>
+  </si>
+  <si>
+    <t>RENOVARI SAUDE MENTAL LTDA</t>
+  </si>
+  <si>
+    <t>43924438000179</t>
+  </si>
+  <si>
+    <t>DECK 020 BAR E RESTAURANTE LTDA</t>
+  </si>
+  <si>
+    <t>46203375000150</t>
+  </si>
+  <si>
+    <t>NOVANET &amp; FIBRA LTDA</t>
+  </si>
+  <si>
+    <t>23273953000129</t>
+  </si>
+  <si>
+    <t>LOBO COMUNICACAO VISUAL PUBLICIDADE LTDA</t>
+  </si>
+  <si>
+    <t>14837233000158</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA MOMBELL LTDA</t>
+  </si>
+  <si>
+    <t>63249170000124</t>
+  </si>
+  <si>
+    <t>E. GOMES FREITAS</t>
+  </si>
+  <si>
+    <t>63027662000175</t>
+  </si>
+  <si>
+    <t>HENRIQUE LEAL DA SILVA ELETRICA AUTOMOTIVA</t>
+  </si>
+  <si>
+    <t>63181001000108</t>
+  </si>
+  <si>
+    <t>JOAO MIKE BEZERRA CUNHA SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>17291769000109</t>
+  </si>
+  <si>
+    <t>L.O.D.N. COMERCIO, SERVICOS E REPRESENTACOES LTDA</t>
+  </si>
+  <si>
+    <t>38210536000104</t>
+  </si>
+  <si>
+    <t>RUBENS RAMOS IMOVEIS LTDA</t>
+  </si>
+  <si>
+    <t>53568474000443</t>
+  </si>
+  <si>
+    <t>Lux Produtos Oticos LTDA</t>
+  </si>
+  <si>
+    <t>58950334000106</t>
+  </si>
+  <si>
+    <t>ANGULLAR EMPREITEIRA LTDA</t>
+  </si>
+  <si>
+    <t>62839712000156</t>
+  </si>
+  <si>
+    <t>S. ARIAS PSICOLOGIA LTDA</t>
+  </si>
+  <si>
+    <t>04020143000116</t>
+  </si>
+  <si>
+    <t>MARWE BEAUTY DISTRIBUIDORA DE COSMETICOS LTDA</t>
+  </si>
+  <si>
+    <t>59729165000141</t>
+  </si>
+  <si>
+    <t>CONCEICAO ANDREA DILO FERREIRA</t>
+  </si>
+  <si>
+    <t>21267722000187</t>
+  </si>
+  <si>
+    <t>CENTRO OESTE SERVICOS EM TECNOLOGIA DA INFORMACAO LTDA</t>
+  </si>
+  <si>
+    <t>49294522000132</t>
+  </si>
+  <si>
+    <t>THIAGO ROGISKI  SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>38903122000160</t>
+  </si>
+  <si>
+    <t>JUDSON FERREIRA DA SILVA  LTDA</t>
+  </si>
+  <si>
+    <t>41230492000199</t>
+  </si>
+  <si>
+    <t>AR JUNIOR REPRESENTACOES LTDA</t>
+  </si>
+  <si>
+    <t>63643691000161</t>
+  </si>
+  <si>
+    <t>ILDSON BARBOSA SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>63504347000191</t>
+  </si>
+  <si>
+    <t>A DAMASCENO GESTAO EMPRESARIAL LTDA</t>
+  </si>
+  <si>
+    <t>43464938000175</t>
+  </si>
+  <si>
+    <t>ARIELE PRODUTOS OTICOS LTDA</t>
+  </si>
+  <si>
+    <t>63785377000113</t>
+  </si>
+  <si>
+    <t>AV CATALIZADORES E SUCATA ELETRONICA IMPORTACAO E EXPORTACAO LTDA</t>
+  </si>
+  <si>
+    <t>39247324000164</t>
+  </si>
+  <si>
+    <t>REIS PLAZA OTICAS LTDA</t>
+  </si>
+  <si>
+    <t>Para garantir a seguranca e a validade do processo, Pedimos gentilmente que envie uma nova foto, conforme as orientacoes &lt;br&gt;&lt;br&gt;Estatuto social atualizado e registrado no orgao competente&lt;br&gt;&lt;br&gt;Boletim de subscricao contendo o total das acoes</t>
+  </si>
+  <si>
+    <t>Procuracao com poderes para abrir e movimentar contas, pois identificamos que a representacao da sua empresa deve ser em conjunto pelos socios. Â Assinar digitalmente ou reconhecer firmas, em caso de assinatura digital, devera ser encaminhado o documento em formato PDF, para validacao das assinaturas e protocolo de autenticidade&lt;br&gt;&lt;br&gt; Contrato Social da empresa socia CORAGER PEREZ PARTICIPACOES LTDA</t>
   </si>
 </sst>
 </file>
@@ -8549,10 +9032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCD3CE2-DBA2-4F4F-B6A3-11EE884EA727}">
-  <dimension ref="A1:G1321"/>
+  <dimension ref="A1:G1401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1283" workbookViewId="0">
-      <selection activeCell="F1291" sqref="F1291"/>
+    <sheetView tabSelected="1" topLeftCell="A1379" workbookViewId="0">
+      <selection activeCell="A1401" sqref="A1401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14236,10 +14719,10 @@
         <v>9</v>
       </c>
       <c r="F247" t="s">
-        <v>101</v>
-      </c>
-      <c r="G247" t="s">
-        <v>2540</v>
+        <v>23</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -15225,7 +15708,7 @@
         <v>27</v>
       </c>
       <c r="F290" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -19158,7 +19641,7 @@
         <v>27</v>
       </c>
       <c r="F461" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G461">
         <v>0</v>
@@ -22079,7 +22562,7 @@
         <v>27</v>
       </c>
       <c r="F588" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G588">
         <v>0</v>
@@ -23300,8 +23783,8 @@
       <c r="F641" t="s">
         <v>28</v>
       </c>
-      <c r="G641" t="e">
-        <v>#N/A</v>
+      <c r="G641">
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
@@ -25851,7 +26334,7 @@
         <v>27</v>
       </c>
       <c r="F752" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G752">
         <v>0</v>
@@ -30359,7 +30842,7 @@
         <v>9</v>
       </c>
       <c r="F948" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G948">
         <v>0</v>
@@ -34867,7 +35350,7 @@
         <v>9</v>
       </c>
       <c r="F1144" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1144">
         <v>0</v>
@@ -35522,22 +36005,22 @@
         <v>45982</v>
       </c>
       <c r="B1173" t="s">
-        <v>2399</v>
+        <v>2401</v>
       </c>
       <c r="C1173" t="s">
-        <v>2400</v>
+        <v>2402</v>
       </c>
       <c r="D1173" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E1173" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F1173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1173">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="G1173" t="s">
+        <v>2548</v>
       </c>
     </row>
     <row r="1174" spans="1:7" x14ac:dyDescent="0.25">
@@ -35545,22 +36028,22 @@
         <v>45982</v>
       </c>
       <c r="B1174" t="s">
-        <v>2401</v>
+        <v>2403</v>
       </c>
       <c r="C1174" t="s">
-        <v>2402</v>
+        <v>2404</v>
       </c>
       <c r="D1174" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="E1174" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F1174" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1174" t="s">
-        <v>2548</v>
+        <v>28</v>
+      </c>
+      <c r="G1174">
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:7" x14ac:dyDescent="0.25">
@@ -35568,16 +36051,16 @@
         <v>45982</v>
       </c>
       <c r="B1175" t="s">
-        <v>2403</v>
+        <v>2405</v>
       </c>
       <c r="C1175" t="s">
-        <v>2404</v>
+        <v>2406</v>
       </c>
       <c r="D1175" t="s">
         <v>17</v>
       </c>
       <c r="E1175" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F1175" t="s">
         <v>28</v>
@@ -35591,13 +36074,13 @@
         <v>45982</v>
       </c>
       <c r="B1176" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="C1176" t="s">
-        <v>2406</v>
+        <v>2408</v>
       </c>
       <c r="D1176" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E1176" t="s">
         <v>9</v>
@@ -35614,16 +36097,16 @@
         <v>45982</v>
       </c>
       <c r="B1177" t="s">
-        <v>2407</v>
+        <v>2409</v>
       </c>
       <c r="C1177" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
       <c r="D1177" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E1177" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F1177" t="s">
         <v>28</v>
@@ -35637,16 +36120,16 @@
         <v>45982</v>
       </c>
       <c r="B1178" t="s">
-        <v>2409</v>
+        <v>2411</v>
       </c>
       <c r="C1178" t="s">
-        <v>2410</v>
+        <v>2412</v>
       </c>
       <c r="D1178" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E1178" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F1178" t="s">
         <v>28</v>
@@ -35660,13 +36143,13 @@
         <v>45982</v>
       </c>
       <c r="B1179" t="s">
-        <v>2411</v>
+        <v>2413</v>
       </c>
       <c r="C1179" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
       <c r="D1179" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E1179" t="s">
         <v>9</v>
@@ -35683,13 +36166,13 @@
         <v>45982</v>
       </c>
       <c r="B1180" t="s">
-        <v>2413</v>
+        <v>2415</v>
       </c>
       <c r="C1180" t="s">
-        <v>2414</v>
+        <v>2416</v>
       </c>
       <c r="D1180" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E1180" t="s">
         <v>9</v>
@@ -35706,13 +36189,13 @@
         <v>45982</v>
       </c>
       <c r="B1181" t="s">
-        <v>2415</v>
+        <v>2417</v>
       </c>
       <c r="C1181" t="s">
-        <v>2416</v>
+        <v>2418</v>
       </c>
       <c r="D1181" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E1181" t="s">
         <v>9</v>
@@ -35729,16 +36212,16 @@
         <v>45982</v>
       </c>
       <c r="B1182" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="C1182" t="s">
-        <v>2418</v>
+        <v>2420</v>
       </c>
       <c r="D1182" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="E1182" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F1182" t="s">
         <v>28</v>
@@ -35752,19 +36235,19 @@
         <v>45982</v>
       </c>
       <c r="B1183" t="s">
-        <v>2419</v>
+        <v>2421</v>
       </c>
       <c r="C1183" t="s">
-        <v>2420</v>
+        <v>2422</v>
       </c>
       <c r="D1183" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="E1183" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F1183" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G1183">
         <v>0</v>
@@ -35775,13 +36258,13 @@
         <v>45982</v>
       </c>
       <c r="B1184" t="s">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="C1184" t="s">
-        <v>2422</v>
+        <v>2424</v>
       </c>
       <c r="D1184" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="E1184" t="s">
         <v>9</v>
@@ -35798,13 +36281,13 @@
         <v>45982</v>
       </c>
       <c r="B1185" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="C1185" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="D1185" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="E1185" t="s">
         <v>9</v>
@@ -35821,22 +36304,22 @@
         <v>45982</v>
       </c>
       <c r="B1186" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="C1186" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
       <c r="D1186" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E1186" t="s">
         <v>9</v>
       </c>
       <c r="F1186" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1186">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="G1186" t="s">
+        <v>2540</v>
       </c>
     </row>
     <row r="1187" spans="1:7" x14ac:dyDescent="0.25">
@@ -35844,22 +36327,22 @@
         <v>45982</v>
       </c>
       <c r="B1187" t="s">
-        <v>2427</v>
+        <v>2429</v>
       </c>
       <c r="C1187" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
       <c r="D1187" t="s">
         <v>17</v>
       </c>
       <c r="E1187" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F1187" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1187" t="s">
-        <v>2540</v>
+        <v>28</v>
+      </c>
+      <c r="G1187">
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:7" x14ac:dyDescent="0.25">
@@ -35867,16 +36350,16 @@
         <v>45982</v>
       </c>
       <c r="B1188" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="C1188" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
       <c r="D1188" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E1188" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="F1188" t="s">
         <v>28</v>
@@ -35890,16 +36373,16 @@
         <v>45982</v>
       </c>
       <c r="B1189" t="s">
-        <v>2431</v>
+        <v>2433</v>
       </c>
       <c r="C1189" t="s">
-        <v>2432</v>
+        <v>2434</v>
       </c>
       <c r="D1189" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E1189" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="F1189" t="s">
         <v>28</v>
@@ -35913,13 +36396,13 @@
         <v>45982</v>
       </c>
       <c r="B1190" t="s">
-        <v>2433</v>
+        <v>2435</v>
       </c>
       <c r="C1190" t="s">
-        <v>2434</v>
+        <v>2436</v>
       </c>
       <c r="D1190" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E1190" t="s">
         <v>9</v>
@@ -35936,22 +36419,22 @@
         <v>45982</v>
       </c>
       <c r="B1191" t="s">
-        <v>2435</v>
+        <v>2437</v>
       </c>
       <c r="C1191" t="s">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="D1191" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="E1191" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F1191" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1191">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="G1191" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="1192" spans="1:7" x14ac:dyDescent="0.25">
@@ -35959,22 +36442,22 @@
         <v>45982</v>
       </c>
       <c r="B1192" t="s">
-        <v>2437</v>
+        <v>2439</v>
       </c>
       <c r="C1192" t="s">
-        <v>2438</v>
+        <v>2440</v>
       </c>
       <c r="D1192" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="E1192" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F1192" t="s">
-        <v>294</v>
-      </c>
-      <c r="G1192" t="e">
-        <v>#N/A</v>
+        <v>28</v>
+      </c>
+      <c r="G1192">
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:7" x14ac:dyDescent="0.25">
@@ -35982,13 +36465,13 @@
         <v>45982</v>
       </c>
       <c r="B1193" t="s">
-        <v>2439</v>
+        <v>2441</v>
       </c>
       <c r="C1193" t="s">
-        <v>2440</v>
+        <v>2442</v>
       </c>
       <c r="D1193" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E1193" t="s">
         <v>9</v>
@@ -36005,10 +36488,10 @@
         <v>45982</v>
       </c>
       <c r="B1194" t="s">
-        <v>2441</v>
+        <v>2443</v>
       </c>
       <c r="C1194" t="s">
-        <v>2442</v>
+        <v>2444</v>
       </c>
       <c r="D1194" t="s">
         <v>59</v>
@@ -36028,13 +36511,13 @@
         <v>45982</v>
       </c>
       <c r="B1195" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="C1195" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="D1195" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E1195" t="s">
         <v>9</v>
@@ -36051,13 +36534,13 @@
         <v>45982</v>
       </c>
       <c r="B1196" t="s">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="C1196" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="D1196" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="E1196" t="s">
         <v>9</v>
@@ -36074,10 +36557,10 @@
         <v>45982</v>
       </c>
       <c r="B1197" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="C1197" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="D1197" t="s">
         <v>8</v>
@@ -36086,7 +36569,7 @@
         <v>9</v>
       </c>
       <c r="F1197" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G1197">
         <v>0</v>
@@ -36097,19 +36580,19 @@
         <v>45982</v>
       </c>
       <c r="B1198" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="C1198" t="s">
-        <v>2450</v>
+        <v>2452</v>
       </c>
       <c r="D1198" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="E1198" t="s">
         <v>9</v>
       </c>
       <c r="F1198" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G1198">
         <v>0</v>
@@ -36120,10 +36603,10 @@
         <v>45982</v>
       </c>
       <c r="B1199" t="s">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c r="C1199" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="D1199" t="s">
         <v>74</v>
@@ -36143,16 +36626,16 @@
         <v>45982</v>
       </c>
       <c r="B1200" t="s">
-        <v>2453</v>
+        <v>2455</v>
       </c>
       <c r="C1200" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="D1200" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="E1200" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="F1200" t="s">
         <v>28</v>
@@ -36166,19 +36649,19 @@
         <v>45982</v>
       </c>
       <c r="B1201" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="C1201" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="D1201" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E1201" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="F1201" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G1201">
         <v>0</v>
@@ -36189,19 +36672,19 @@
         <v>45982</v>
       </c>
       <c r="B1202" t="s">
-        <v>2457</v>
+        <v>2461</v>
       </c>
       <c r="C1202" t="s">
-        <v>2458</v>
+        <v>2462</v>
       </c>
       <c r="D1202" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E1202" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F1202" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G1202">
         <v>0</v>
@@ -36209,19 +36692,19 @@
     </row>
     <row r="1203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1203" s="1">
-        <v>45982</v>
+        <v>45983</v>
       </c>
       <c r="B1203" t="s">
-        <v>2459</v>
+        <v>2463</v>
       </c>
       <c r="C1203" t="s">
-        <v>2460</v>
+        <v>2464</v>
       </c>
       <c r="D1203" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E1203" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="F1203" t="s">
         <v>28</v>
@@ -36232,16 +36715,16 @@
     </row>
     <row r="1204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1204" s="1">
-        <v>45982</v>
+        <v>45983</v>
       </c>
       <c r="B1204" t="s">
-        <v>2461</v>
+        <v>2465</v>
       </c>
       <c r="C1204" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="D1204" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E1204" t="s">
         <v>9</v>
@@ -36258,16 +36741,16 @@
         <v>45983</v>
       </c>
       <c r="B1205" t="s">
-        <v>2463</v>
+        <v>2467</v>
       </c>
       <c r="C1205" t="s">
-        <v>2464</v>
+        <v>2468</v>
       </c>
       <c r="D1205" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E1205" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="F1205" t="s">
         <v>28</v>
@@ -36281,19 +36764,19 @@
         <v>45983</v>
       </c>
       <c r="B1206" t="s">
-        <v>2465</v>
+        <v>2469</v>
       </c>
       <c r="C1206" t="s">
-        <v>2466</v>
+        <v>2470</v>
       </c>
       <c r="D1206" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="E1206" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F1206" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G1206">
         <v>0</v>
@@ -36304,10 +36787,10 @@
         <v>45983</v>
       </c>
       <c r="B1207" t="s">
-        <v>2467</v>
+        <v>2471</v>
       </c>
       <c r="C1207" t="s">
-        <v>2468</v>
+        <v>2472</v>
       </c>
       <c r="D1207" t="s">
         <v>31</v>
@@ -36327,19 +36810,19 @@
         <v>45983</v>
       </c>
       <c r="B1208" t="s">
-        <v>2469</v>
+        <v>2473</v>
       </c>
       <c r="C1208" t="s">
-        <v>2470</v>
+        <v>2474</v>
       </c>
       <c r="D1208" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E1208" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F1208" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G1208">
         <v>0</v>
@@ -36350,13 +36833,13 @@
         <v>45983</v>
       </c>
       <c r="B1209" t="s">
-        <v>2471</v>
+        <v>2475</v>
       </c>
       <c r="C1209" t="s">
-        <v>2472</v>
+        <v>2476</v>
       </c>
       <c r="D1209" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E1209" t="s">
         <v>9</v>
@@ -36373,13 +36856,13 @@
         <v>45983</v>
       </c>
       <c r="B1210" t="s">
-        <v>2473</v>
+        <v>2477</v>
       </c>
       <c r="C1210" t="s">
-        <v>2474</v>
+        <v>2478</v>
       </c>
       <c r="D1210" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="E1210" t="s">
         <v>9</v>
@@ -36396,19 +36879,19 @@
         <v>45983</v>
       </c>
       <c r="B1211" t="s">
-        <v>2475</v>
+        <v>2479</v>
       </c>
       <c r="C1211" t="s">
-        <v>2476</v>
+        <v>2480</v>
       </c>
       <c r="D1211" t="s">
-        <v>34</v>
+        <v>645</v>
       </c>
       <c r="E1211" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F1211" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G1211">
         <v>0</v>
@@ -36419,16 +36902,16 @@
         <v>45983</v>
       </c>
       <c r="B1212" t="s">
-        <v>2477</v>
+        <v>2481</v>
       </c>
       <c r="C1212" t="s">
-        <v>2478</v>
+        <v>2482</v>
       </c>
       <c r="D1212" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="E1212" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="F1212" t="s">
         <v>28</v>
@@ -36442,19 +36925,19 @@
         <v>45983</v>
       </c>
       <c r="B1213" t="s">
-        <v>2479</v>
+        <v>2483</v>
       </c>
       <c r="C1213" t="s">
-        <v>2480</v>
+        <v>2484</v>
       </c>
       <c r="D1213" t="s">
-        <v>645</v>
+        <v>17</v>
       </c>
       <c r="E1213" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="F1213" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G1213">
         <v>0</v>
@@ -36465,16 +36948,16 @@
         <v>45983</v>
       </c>
       <c r="B1214" t="s">
-        <v>2481</v>
+        <v>2485</v>
       </c>
       <c r="C1214" t="s">
-        <v>2482</v>
+        <v>2486</v>
       </c>
       <c r="D1214" t="s">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="E1214" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="F1214" t="s">
         <v>28</v>
@@ -36488,10 +36971,10 @@
         <v>45983</v>
       </c>
       <c r="B1215" t="s">
-        <v>2483</v>
+        <v>2487</v>
       </c>
       <c r="C1215" t="s">
-        <v>2484</v>
+        <v>2488</v>
       </c>
       <c r="D1215" t="s">
         <v>17</v>
@@ -36511,19 +36994,19 @@
         <v>45983</v>
       </c>
       <c r="B1216" t="s">
-        <v>2485</v>
+        <v>2489</v>
       </c>
       <c r="C1216" t="s">
-        <v>2486</v>
+        <v>2490</v>
       </c>
       <c r="D1216" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="E1216" t="s">
         <v>9</v>
       </c>
       <c r="F1216" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G1216">
         <v>0</v>
@@ -36534,16 +37017,16 @@
         <v>45983</v>
       </c>
       <c r="B1217" t="s">
-        <v>2487</v>
+        <v>2491</v>
       </c>
       <c r="C1217" t="s">
-        <v>2488</v>
+        <v>2492</v>
       </c>
       <c r="D1217" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E1217" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="F1217" t="s">
         <v>28</v>
@@ -36557,13 +37040,13 @@
         <v>45983</v>
       </c>
       <c r="B1218" t="s">
-        <v>2489</v>
+        <v>2493</v>
       </c>
       <c r="C1218" t="s">
-        <v>2490</v>
+        <v>2494</v>
       </c>
       <c r="D1218" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="E1218" t="s">
         <v>9</v>
@@ -36580,13 +37063,13 @@
         <v>45983</v>
       </c>
       <c r="B1219" t="s">
-        <v>2491</v>
+        <v>2495</v>
       </c>
       <c r="C1219" t="s">
-        <v>2492</v>
+        <v>2496</v>
       </c>
       <c r="D1219" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E1219" t="s">
         <v>9</v>
@@ -36603,19 +37086,19 @@
         <v>45983</v>
       </c>
       <c r="B1220" t="s">
-        <v>2493</v>
+        <v>2497</v>
       </c>
       <c r="C1220" t="s">
-        <v>2494</v>
+        <v>2498</v>
       </c>
       <c r="D1220" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E1220" t="s">
         <v>9</v>
       </c>
       <c r="F1220" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G1220">
         <v>0</v>
@@ -36626,13 +37109,13 @@
         <v>45983</v>
       </c>
       <c r="B1221" t="s">
-        <v>2495</v>
+        <v>2499</v>
       </c>
       <c r="C1221" t="s">
-        <v>2496</v>
+        <v>2500</v>
       </c>
       <c r="D1221" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E1221" t="s">
         <v>9</v>
@@ -36649,10 +37132,10 @@
         <v>45983</v>
       </c>
       <c r="B1222" t="s">
-        <v>2497</v>
+        <v>2501</v>
       </c>
       <c r="C1222" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="D1222" t="s">
         <v>17</v>
@@ -36672,22 +37155,22 @@
         <v>45983</v>
       </c>
       <c r="B1223" t="s">
-        <v>2499</v>
+        <v>2503</v>
       </c>
       <c r="C1223" t="s">
-        <v>2500</v>
+        <v>2504</v>
       </c>
       <c r="D1223" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E1223" t="s">
         <v>9</v>
       </c>
       <c r="F1223" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1223">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="G1223" t="s">
+        <v>2540</v>
       </c>
     </row>
     <row r="1224" spans="1:7" x14ac:dyDescent="0.25">
@@ -36695,13 +37178,13 @@
         <v>45983</v>
       </c>
       <c r="B1224" t="s">
-        <v>2501</v>
+        <v>2505</v>
       </c>
       <c r="C1224" t="s">
-        <v>2502</v>
+        <v>2506</v>
       </c>
       <c r="D1224" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E1224" t="s">
         <v>9</v>
@@ -36718,22 +37201,22 @@
         <v>45983</v>
       </c>
       <c r="B1225" t="s">
-        <v>2503</v>
+        <v>2507</v>
       </c>
       <c r="C1225" t="s">
-        <v>2504</v>
+        <v>2508</v>
       </c>
       <c r="D1225" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E1225" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F1225" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1225" t="s">
-        <v>2540</v>
+        <v>28</v>
+      </c>
+      <c r="G1225">
+        <v>0</v>
       </c>
     </row>
     <row r="1226" spans="1:7" x14ac:dyDescent="0.25">
@@ -36741,19 +37224,19 @@
         <v>45983</v>
       </c>
       <c r="B1226" t="s">
-        <v>2505</v>
+        <v>2509</v>
       </c>
       <c r="C1226" t="s">
-        <v>2506</v>
+        <v>2510</v>
       </c>
       <c r="D1226" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="E1226" t="s">
         <v>9</v>
       </c>
       <c r="F1226" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G1226">
         <v>0</v>
@@ -36764,16 +37247,16 @@
         <v>45983</v>
       </c>
       <c r="B1227" t="s">
-        <v>2507</v>
+        <v>2511</v>
       </c>
       <c r="C1227" t="s">
-        <v>2508</v>
+        <v>2512</v>
       </c>
       <c r="D1227" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="E1227" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F1227" t="s">
         <v>28</v>
@@ -36787,19 +37270,19 @@
         <v>45983</v>
       </c>
       <c r="B1228" t="s">
-        <v>2509</v>
+        <v>2513</v>
       </c>
       <c r="C1228" t="s">
-        <v>2510</v>
+        <v>2514</v>
       </c>
       <c r="D1228" t="s">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="E1228" t="s">
         <v>9</v>
       </c>
       <c r="F1228" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G1228">
         <v>0</v>
@@ -36810,13 +37293,13 @@
         <v>45983</v>
       </c>
       <c r="B1229" t="s">
-        <v>2511</v>
+        <v>2515</v>
       </c>
       <c r="C1229" t="s">
-        <v>2512</v>
+        <v>2516</v>
       </c>
       <c r="D1229" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E1229" t="s">
         <v>9</v>
@@ -36833,13 +37316,13 @@
         <v>45983</v>
       </c>
       <c r="B1230" t="s">
-        <v>2513</v>
+        <v>2517</v>
       </c>
       <c r="C1230" t="s">
-        <v>2514</v>
+        <v>2518</v>
       </c>
       <c r="D1230" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E1230" t="s">
         <v>9</v>
@@ -36856,19 +37339,19 @@
         <v>45983</v>
       </c>
       <c r="B1231" t="s">
-        <v>2515</v>
+        <v>2521</v>
       </c>
       <c r="C1231" t="s">
-        <v>2516</v>
+        <v>2522</v>
       </c>
       <c r="D1231" t="s">
-        <v>44</v>
+        <v>645</v>
       </c>
       <c r="E1231" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F1231" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G1231">
         <v>0</v>
@@ -36879,10 +37362,10 @@
         <v>45983</v>
       </c>
       <c r="B1232" t="s">
-        <v>2517</v>
+        <v>2523</v>
       </c>
       <c r="C1232" t="s">
-        <v>2518</v>
+        <v>2524</v>
       </c>
       <c r="D1232" t="s">
         <v>17</v>
@@ -36902,19 +37385,19 @@
         <v>45983</v>
       </c>
       <c r="B1233" t="s">
-        <v>2519</v>
+        <v>2525</v>
       </c>
       <c r="C1233" t="s">
-        <v>2520</v>
+        <v>2526</v>
       </c>
       <c r="D1233" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E1233" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F1233" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G1233">
         <v>0</v>
@@ -36925,22 +37408,22 @@
         <v>45983</v>
       </c>
       <c r="B1234" t="s">
-        <v>2521</v>
+        <v>2527</v>
       </c>
       <c r="C1234" t="s">
-        <v>2522</v>
+        <v>2528</v>
       </c>
       <c r="D1234" t="s">
-        <v>645</v>
+        <v>17</v>
       </c>
       <c r="E1234" t="s">
-        <v>27</v>
+        <v>731</v>
       </c>
       <c r="F1234" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1234">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="G1234" t="s">
+        <v>2712</v>
       </c>
     </row>
     <row r="1235" spans="1:7" x14ac:dyDescent="0.25">
@@ -36948,19 +37431,19 @@
         <v>45983</v>
       </c>
       <c r="B1235" t="s">
-        <v>2523</v>
+        <v>2529</v>
       </c>
       <c r="C1235" t="s">
-        <v>2524</v>
+        <v>2530</v>
       </c>
       <c r="D1235" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E1235" t="s">
         <v>9</v>
       </c>
       <c r="F1235" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G1235">
         <v>0</v>
@@ -36971,19 +37454,19 @@
         <v>45983</v>
       </c>
       <c r="B1236" t="s">
-        <v>2525</v>
+        <v>2531</v>
       </c>
       <c r="C1236" t="s">
-        <v>2526</v>
+        <v>2532</v>
       </c>
       <c r="D1236" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E1236" t="s">
         <v>9</v>
       </c>
       <c r="F1236" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G1236">
         <v>0</v>
@@ -36994,22 +37477,22 @@
         <v>45983</v>
       </c>
       <c r="B1237" t="s">
-        <v>2527</v>
+        <v>2533</v>
       </c>
       <c r="C1237" t="s">
-        <v>2528</v>
+        <v>2534</v>
       </c>
       <c r="D1237" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E1237" t="s">
-        <v>731</v>
+        <v>9</v>
       </c>
       <c r="F1237" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1237" t="s">
-        <v>2712</v>
+        <v>28</v>
+      </c>
+      <c r="G1237">
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:7" x14ac:dyDescent="0.25">
@@ -37017,19 +37500,19 @@
         <v>45983</v>
       </c>
       <c r="B1238" t="s">
-        <v>2529</v>
+        <v>2535</v>
       </c>
       <c r="C1238" t="s">
-        <v>2530</v>
+        <v>2536</v>
       </c>
       <c r="D1238" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E1238" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="F1238" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G1238">
         <v>0</v>
@@ -37040,19 +37523,19 @@
         <v>45983</v>
       </c>
       <c r="B1239" t="s">
-        <v>2531</v>
+        <v>2713</v>
       </c>
       <c r="C1239" t="s">
-        <v>2532</v>
+        <v>2714</v>
       </c>
       <c r="D1239" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E1239" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F1239" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1239">
         <v>0</v>
@@ -37060,19 +37543,19 @@
     </row>
     <row r="1240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1240" s="1">
-        <v>45983</v>
+        <v>45985</v>
       </c>
       <c r="B1240" t="s">
-        <v>2533</v>
+        <v>2537</v>
       </c>
       <c r="C1240" t="s">
-        <v>2534</v>
+        <v>2538</v>
       </c>
       <c r="D1240" t="s">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="E1240" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="F1240" t="s">
         <v>28</v>
@@ -37083,19 +37566,19 @@
     </row>
     <row r="1241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1241" s="1">
-        <v>45983</v>
+        <v>45985</v>
       </c>
       <c r="B1241" t="s">
-        <v>2535</v>
+        <v>2559</v>
       </c>
       <c r="C1241" t="s">
-        <v>2536</v>
+        <v>2560</v>
       </c>
       <c r="D1241" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E1241" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="F1241" t="s">
         <v>28</v>
@@ -37109,16 +37592,16 @@
         <v>45985</v>
       </c>
       <c r="B1242" t="s">
-        <v>2537</v>
+        <v>2561</v>
       </c>
       <c r="C1242" t="s">
-        <v>2538</v>
+        <v>2562</v>
       </c>
       <c r="D1242" t="s">
-        <v>225</v>
+        <v>59</v>
       </c>
       <c r="E1242" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="F1242" t="s">
         <v>28</v>
@@ -37132,13 +37615,13 @@
         <v>45985</v>
       </c>
       <c r="B1243" t="s">
-        <v>2559</v>
+        <v>2563</v>
       </c>
       <c r="C1243" t="s">
-        <v>2560</v>
+        <v>2564</v>
       </c>
       <c r="D1243" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E1243" t="s">
         <v>9</v>
@@ -37155,13 +37638,13 @@
         <v>45985</v>
       </c>
       <c r="B1244" t="s">
-        <v>2561</v>
+        <v>2565</v>
       </c>
       <c r="C1244" t="s">
-        <v>2562</v>
+        <v>2566</v>
       </c>
       <c r="D1244" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E1244" t="s">
         <v>9</v>
@@ -37178,16 +37661,16 @@
         <v>45985</v>
       </c>
       <c r="B1245" t="s">
-        <v>2563</v>
+        <v>2567</v>
       </c>
       <c r="C1245" t="s">
-        <v>2564</v>
+        <v>2568</v>
       </c>
       <c r="D1245" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="E1245" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="F1245" t="s">
         <v>28</v>
@@ -37201,16 +37684,16 @@
         <v>45985</v>
       </c>
       <c r="B1246" t="s">
-        <v>2565</v>
+        <v>2569</v>
       </c>
       <c r="C1246" t="s">
-        <v>2566</v>
+        <v>2570</v>
       </c>
       <c r="D1246" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E1246" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F1246" t="s">
         <v>28</v>
@@ -37224,22 +37707,22 @@
         <v>45985</v>
       </c>
       <c r="B1247" t="s">
-        <v>2567</v>
+        <v>2571</v>
       </c>
       <c r="C1247" t="s">
-        <v>2568</v>
+        <v>2572</v>
       </c>
       <c r="D1247" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="E1247" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="F1247" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1247">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="G1247" t="s">
+        <v>2540</v>
       </c>
     </row>
     <row r="1248" spans="1:7" x14ac:dyDescent="0.25">
@@ -37247,16 +37730,16 @@
         <v>45985</v>
       </c>
       <c r="B1248" t="s">
-        <v>2569</v>
+        <v>2573</v>
       </c>
       <c r="C1248" t="s">
-        <v>2570</v>
+        <v>2574</v>
       </c>
       <c r="D1248" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E1248" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F1248" t="s">
         <v>28</v>
@@ -37270,22 +37753,22 @@
         <v>45985</v>
       </c>
       <c r="B1249" t="s">
-        <v>2571</v>
+        <v>2575</v>
       </c>
       <c r="C1249" t="s">
-        <v>2572</v>
+        <v>2576</v>
       </c>
       <c r="D1249" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="E1249" t="s">
         <v>27</v>
       </c>
       <c r="F1249" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1249" t="s">
-        <v>2540</v>
+        <v>28</v>
+      </c>
+      <c r="G1249">
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:7" x14ac:dyDescent="0.25">
@@ -37293,13 +37776,13 @@
         <v>45985</v>
       </c>
       <c r="B1250" t="s">
-        <v>2573</v>
+        <v>2577</v>
       </c>
       <c r="C1250" t="s">
-        <v>2574</v>
+        <v>2578</v>
       </c>
       <c r="D1250" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="E1250" t="s">
         <v>9</v>
@@ -37316,19 +37799,19 @@
         <v>45985</v>
       </c>
       <c r="B1251" t="s">
-        <v>2575</v>
+        <v>2579</v>
       </c>
       <c r="C1251" t="s">
-        <v>2576</v>
+        <v>2580</v>
       </c>
       <c r="D1251" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E1251" t="s">
         <v>27</v>
       </c>
       <c r="F1251" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G1251">
         <v>0</v>
@@ -37339,13 +37822,13 @@
         <v>45985</v>
       </c>
       <c r="B1252" t="s">
-        <v>2577</v>
+        <v>2581</v>
       </c>
       <c r="C1252" t="s">
-        <v>2578</v>
+        <v>2582</v>
       </c>
       <c r="D1252" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E1252" t="s">
         <v>9</v>
@@ -37362,19 +37845,19 @@
         <v>45985</v>
       </c>
       <c r="B1253" t="s">
-        <v>2579</v>
+        <v>2583</v>
       </c>
       <c r="C1253" t="s">
-        <v>2580</v>
+        <v>2584</v>
       </c>
       <c r="D1253" t="s">
-        <v>26</v>
+        <v>645</v>
       </c>
       <c r="E1253" t="s">
         <v>27</v>
       </c>
       <c r="F1253" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G1253">
         <v>0</v>
@@ -37385,19 +37868,19 @@
         <v>45985</v>
       </c>
       <c r="B1254" t="s">
-        <v>2581</v>
+        <v>2585</v>
       </c>
       <c r="C1254" t="s">
-        <v>2582</v>
+        <v>2586</v>
       </c>
       <c r="D1254" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="E1254" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F1254" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G1254">
         <v>0</v>
@@ -37408,16 +37891,16 @@
         <v>45985</v>
       </c>
       <c r="B1255" t="s">
-        <v>2583</v>
+        <v>2587</v>
       </c>
       <c r="C1255" t="s">
-        <v>2584</v>
+        <v>2588</v>
       </c>
       <c r="D1255" t="s">
-        <v>645</v>
+        <v>47</v>
       </c>
       <c r="E1255" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F1255" t="s">
         <v>28</v>
@@ -37431,19 +37914,19 @@
         <v>45985</v>
       </c>
       <c r="B1256" t="s">
-        <v>2585</v>
+        <v>2589</v>
       </c>
       <c r="C1256" t="s">
-        <v>2586</v>
+        <v>2590</v>
       </c>
       <c r="D1256" t="s">
         <v>155</v>
       </c>
       <c r="E1256" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F1256" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G1256">
         <v>0</v>
@@ -37454,13 +37937,13 @@
         <v>45985</v>
       </c>
       <c r="B1257" t="s">
-        <v>2587</v>
+        <v>2591</v>
       </c>
       <c r="C1257" t="s">
-        <v>2588</v>
+        <v>2592</v>
       </c>
       <c r="D1257" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E1257" t="s">
         <v>9</v>
@@ -37477,13 +37960,13 @@
         <v>45985</v>
       </c>
       <c r="B1258" t="s">
-        <v>2589</v>
+        <v>2593</v>
       </c>
       <c r="C1258" t="s">
-        <v>2590</v>
+        <v>2594</v>
       </c>
       <c r="D1258" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="E1258" t="s">
         <v>9</v>
@@ -37500,16 +37983,16 @@
         <v>45985</v>
       </c>
       <c r="B1259" t="s">
-        <v>2591</v>
+        <v>2595</v>
       </c>
       <c r="C1259" t="s">
-        <v>2592</v>
+        <v>2596</v>
       </c>
       <c r="D1259" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E1259" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="F1259" t="s">
         <v>28</v>
@@ -37523,10 +38006,10 @@
         <v>45985</v>
       </c>
       <c r="B1260" t="s">
-        <v>2593</v>
+        <v>2597</v>
       </c>
       <c r="C1260" t="s">
-        <v>2594</v>
+        <v>2598</v>
       </c>
       <c r="D1260" t="s">
         <v>17</v>
@@ -37535,7 +38018,7 @@
         <v>9</v>
       </c>
       <c r="F1260" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G1260">
         <v>0</v>
@@ -37546,16 +38029,16 @@
         <v>45985</v>
       </c>
       <c r="B1261" t="s">
-        <v>2595</v>
+        <v>2290</v>
       </c>
       <c r="C1261" t="s">
-        <v>2596</v>
+        <v>2291</v>
       </c>
       <c r="D1261" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="E1261" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="F1261" t="s">
         <v>28</v>
@@ -37569,19 +38052,19 @@
         <v>45985</v>
       </c>
       <c r="B1262" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="C1262" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="D1262" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E1262" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="F1262" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G1262">
         <v>0</v>
@@ -37592,19 +38075,19 @@
         <v>45985</v>
       </c>
       <c r="B1263" t="s">
-        <v>2290</v>
+        <v>2601</v>
       </c>
       <c r="C1263" t="s">
-        <v>2291</v>
+        <v>2602</v>
       </c>
       <c r="D1263" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="E1263" t="s">
         <v>27</v>
       </c>
       <c r="F1263" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G1263">
         <v>0</v>
@@ -37615,19 +38098,19 @@
         <v>45985</v>
       </c>
       <c r="B1264" t="s">
-        <v>2599</v>
+        <v>2603</v>
       </c>
       <c r="C1264" t="s">
-        <v>2600</v>
+        <v>2604</v>
       </c>
       <c r="D1264" t="s">
-        <v>39</v>
+        <v>645</v>
       </c>
       <c r="E1264" t="s">
-        <v>94</v>
+        <v>731</v>
       </c>
       <c r="F1264" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G1264">
         <v>0</v>
@@ -37638,19 +38121,19 @@
         <v>45985</v>
       </c>
       <c r="B1265" t="s">
-        <v>2601</v>
+        <v>2605</v>
       </c>
       <c r="C1265" t="s">
-        <v>2602</v>
+        <v>2606</v>
       </c>
       <c r="D1265" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E1265" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F1265" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G1265">
         <v>0</v>
@@ -37661,19 +38144,19 @@
         <v>45985</v>
       </c>
       <c r="B1266" t="s">
-        <v>2603</v>
+        <v>2607</v>
       </c>
       <c r="C1266" t="s">
-        <v>2604</v>
+        <v>2608</v>
       </c>
       <c r="D1266" t="s">
-        <v>645</v>
+        <v>34</v>
       </c>
       <c r="E1266" t="s">
-        <v>731</v>
+        <v>9</v>
       </c>
       <c r="F1266" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G1266">
         <v>0</v>
@@ -37684,22 +38167,22 @@
         <v>45985</v>
       </c>
       <c r="B1267" t="s">
-        <v>2605</v>
+        <v>2609</v>
       </c>
       <c r="C1267" t="s">
-        <v>2606</v>
+        <v>2610</v>
       </c>
       <c r="D1267" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E1267" t="s">
         <v>9</v>
       </c>
       <c r="F1267" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1267">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="G1267" t="s">
+        <v>2540</v>
       </c>
     </row>
     <row r="1268" spans="1:7" x14ac:dyDescent="0.25">
@@ -37707,19 +38190,19 @@
         <v>45985</v>
       </c>
       <c r="B1268" t="s">
-        <v>2607</v>
+        <v>361</v>
       </c>
       <c r="C1268" t="s">
-        <v>2608</v>
+        <v>362</v>
       </c>
       <c r="D1268" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E1268" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F1268" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G1268">
         <v>0</v>
@@ -37730,22 +38213,22 @@
         <v>45985</v>
       </c>
       <c r="B1269" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="C1269" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="D1269" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E1269" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F1269" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1269" t="s">
-        <v>2540</v>
+        <v>28</v>
+      </c>
+      <c r="G1269">
+        <v>0</v>
       </c>
     </row>
     <row r="1270" spans="1:7" x14ac:dyDescent="0.25">
@@ -37753,16 +38236,16 @@
         <v>45985</v>
       </c>
       <c r="B1270" t="s">
-        <v>361</v>
+        <v>2613</v>
       </c>
       <c r="C1270" t="s">
-        <v>362</v>
+        <v>2614</v>
       </c>
       <c r="D1270" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E1270" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F1270" t="s">
         <v>28</v>
@@ -37776,19 +38259,19 @@
         <v>45985</v>
       </c>
       <c r="B1271" t="s">
-        <v>2611</v>
+        <v>2615</v>
       </c>
       <c r="C1271" t="s">
-        <v>2612</v>
+        <v>2616</v>
       </c>
       <c r="D1271" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E1271" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F1271" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G1271">
         <v>0</v>
@@ -37799,13 +38282,13 @@
         <v>45985</v>
       </c>
       <c r="B1272" t="s">
-        <v>2613</v>
+        <v>2617</v>
       </c>
       <c r="C1272" t="s">
-        <v>2614</v>
+        <v>2618</v>
       </c>
       <c r="D1272" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E1272" t="s">
         <v>9</v>
@@ -37822,19 +38305,19 @@
         <v>45985</v>
       </c>
       <c r="B1273" t="s">
-        <v>2615</v>
+        <v>2619</v>
       </c>
       <c r="C1273" t="s">
-        <v>2616</v>
+        <v>2620</v>
       </c>
       <c r="D1273" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="E1273" t="s">
         <v>9</v>
       </c>
       <c r="F1273" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1273">
         <v>0</v>
@@ -37845,19 +38328,19 @@
         <v>45985</v>
       </c>
       <c r="B1274" t="s">
-        <v>2617</v>
+        <v>1771</v>
       </c>
       <c r="C1274" t="s">
-        <v>2618</v>
+        <v>1772</v>
       </c>
       <c r="D1274" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E1274" t="s">
         <v>9</v>
       </c>
       <c r="F1274" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G1274">
         <v>0</v>
@@ -37868,13 +38351,13 @@
         <v>45985</v>
       </c>
       <c r="B1275" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="C1275" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="D1275" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E1275" t="s">
         <v>9</v>
@@ -37891,13 +38374,13 @@
         <v>45985</v>
       </c>
       <c r="B1276" t="s">
-        <v>1771</v>
+        <v>2623</v>
       </c>
       <c r="C1276" t="s">
-        <v>1772</v>
+        <v>2624</v>
       </c>
       <c r="D1276" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E1276" t="s">
         <v>9</v>
@@ -37914,19 +38397,19 @@
         <v>45985</v>
       </c>
       <c r="B1277" t="s">
-        <v>2621</v>
+        <v>2625</v>
       </c>
       <c r="C1277" t="s">
-        <v>2622</v>
+        <v>2626</v>
       </c>
       <c r="D1277" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E1277" t="s">
         <v>9</v>
       </c>
       <c r="F1277" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G1277">
         <v>0</v>
@@ -37937,13 +38420,13 @@
         <v>45985</v>
       </c>
       <c r="B1278" t="s">
-        <v>2623</v>
+        <v>2627</v>
       </c>
       <c r="C1278" t="s">
-        <v>2624</v>
+        <v>2628</v>
       </c>
       <c r="D1278" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E1278" t="s">
         <v>9</v>
@@ -37960,19 +38443,19 @@
         <v>45985</v>
       </c>
       <c r="B1279" t="s">
-        <v>2625</v>
+        <v>2629</v>
       </c>
       <c r="C1279" t="s">
-        <v>2626</v>
+        <v>2630</v>
       </c>
       <c r="D1279" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E1279" t="s">
         <v>9</v>
       </c>
       <c r="F1279" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G1279">
         <v>0</v>
@@ -37983,19 +38466,19 @@
         <v>45985</v>
       </c>
       <c r="B1280" t="s">
-        <v>2627</v>
+        <v>2631</v>
       </c>
       <c r="C1280" t="s">
-        <v>2628</v>
+        <v>2632</v>
       </c>
       <c r="D1280" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E1280" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="F1280" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G1280">
         <v>0</v>
@@ -38006,10 +38489,10 @@
         <v>45985</v>
       </c>
       <c r="B1281" t="s">
-        <v>2629</v>
+        <v>2633</v>
       </c>
       <c r="C1281" t="s">
-        <v>2630</v>
+        <v>2634</v>
       </c>
       <c r="D1281" t="s">
         <v>59</v>
@@ -38018,7 +38501,7 @@
         <v>9</v>
       </c>
       <c r="F1281" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G1281">
         <v>0</v>
@@ -38029,16 +38512,16 @@
         <v>45985</v>
       </c>
       <c r="B1282" t="s">
-        <v>2631</v>
+        <v>2635</v>
       </c>
       <c r="C1282" t="s">
-        <v>2632</v>
+        <v>2636</v>
       </c>
       <c r="D1282" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E1282" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="F1282" t="s">
         <v>28</v>
@@ -38052,10 +38535,10 @@
         <v>45985</v>
       </c>
       <c r="B1283" t="s">
-        <v>2633</v>
+        <v>2637</v>
       </c>
       <c r="C1283" t="s">
-        <v>2634</v>
+        <v>2638</v>
       </c>
       <c r="D1283" t="s">
         <v>59</v>
@@ -38064,7 +38547,7 @@
         <v>9</v>
       </c>
       <c r="F1283" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G1283">
         <v>0</v>
@@ -38075,13 +38558,13 @@
         <v>45985</v>
       </c>
       <c r="B1284" t="s">
-        <v>2635</v>
+        <v>2639</v>
       </c>
       <c r="C1284" t="s">
-        <v>2636</v>
+        <v>2640</v>
       </c>
       <c r="D1284" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E1284" t="s">
         <v>9</v>
@@ -38098,19 +38581,19 @@
         <v>45985</v>
       </c>
       <c r="B1285" t="s">
-        <v>2637</v>
+        <v>2641</v>
       </c>
       <c r="C1285" t="s">
-        <v>2638</v>
+        <v>2642</v>
       </c>
       <c r="D1285" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E1285" t="s">
         <v>9</v>
       </c>
       <c r="F1285" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G1285">
         <v>0</v>
@@ -38121,13 +38604,13 @@
         <v>45985</v>
       </c>
       <c r="B1286" t="s">
-        <v>2639</v>
+        <v>2643</v>
       </c>
       <c r="C1286" t="s">
-        <v>2640</v>
+        <v>2644</v>
       </c>
       <c r="D1286" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E1286" t="s">
         <v>9</v>
@@ -38144,19 +38627,19 @@
         <v>45985</v>
       </c>
       <c r="B1287" t="s">
-        <v>2641</v>
+        <v>2645</v>
       </c>
       <c r="C1287" t="s">
-        <v>2642</v>
+        <v>2646</v>
       </c>
       <c r="D1287" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E1287" t="s">
         <v>9</v>
       </c>
       <c r="F1287" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G1287">
         <v>0</v>
@@ -38167,13 +38650,13 @@
         <v>45985</v>
       </c>
       <c r="B1288" t="s">
-        <v>2643</v>
+        <v>2647</v>
       </c>
       <c r="C1288" t="s">
-        <v>2644</v>
+        <v>2648</v>
       </c>
       <c r="D1288" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="E1288" t="s">
         <v>9</v>
@@ -38190,16 +38673,16 @@
         <v>45985</v>
       </c>
       <c r="B1289" t="s">
-        <v>2645</v>
+        <v>2649</v>
       </c>
       <c r="C1289" t="s">
-        <v>2646</v>
+        <v>2650</v>
       </c>
       <c r="D1289" t="s">
-        <v>17</v>
+        <v>645</v>
       </c>
       <c r="E1289" t="s">
-        <v>9</v>
+        <v>731</v>
       </c>
       <c r="F1289" t="s">
         <v>28</v>
@@ -38213,13 +38696,13 @@
         <v>45985</v>
       </c>
       <c r="B1290" t="s">
-        <v>2647</v>
+        <v>2651</v>
       </c>
       <c r="C1290" t="s">
-        <v>2648</v>
+        <v>2652</v>
       </c>
       <c r="D1290" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E1290" t="s">
         <v>9</v>
@@ -38236,16 +38719,16 @@
         <v>45985</v>
       </c>
       <c r="B1291" t="s">
-        <v>2649</v>
+        <v>2653</v>
       </c>
       <c r="C1291" t="s">
-        <v>2650</v>
+        <v>2654</v>
       </c>
       <c r="D1291" t="s">
-        <v>645</v>
+        <v>8</v>
       </c>
       <c r="E1291" t="s">
-        <v>731</v>
+        <v>9</v>
       </c>
       <c r="F1291" t="s">
         <v>28</v>
@@ -38259,19 +38742,19 @@
         <v>45985</v>
       </c>
       <c r="B1292" t="s">
-        <v>2651</v>
+        <v>2655</v>
       </c>
       <c r="C1292" t="s">
-        <v>2652</v>
+        <v>2656</v>
       </c>
       <c r="D1292" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="E1292" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F1292" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G1292">
         <v>0</v>
@@ -38282,13 +38765,13 @@
         <v>45985</v>
       </c>
       <c r="B1293" t="s">
-        <v>2653</v>
+        <v>2657</v>
       </c>
       <c r="C1293" t="s">
-        <v>2654</v>
+        <v>2658</v>
       </c>
       <c r="D1293" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="E1293" t="s">
         <v>9</v>
@@ -38305,19 +38788,19 @@
         <v>45985</v>
       </c>
       <c r="B1294" t="s">
-        <v>2655</v>
+        <v>2659</v>
       </c>
       <c r="C1294" t="s">
-        <v>2656</v>
+        <v>2660</v>
       </c>
       <c r="D1294" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="E1294" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F1294" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G1294">
         <v>0</v>
@@ -38328,19 +38811,19 @@
         <v>45985</v>
       </c>
       <c r="B1295" t="s">
-        <v>2657</v>
+        <v>2661</v>
       </c>
       <c r="C1295" t="s">
-        <v>2658</v>
+        <v>2662</v>
       </c>
       <c r="D1295" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E1295" t="s">
         <v>9</v>
       </c>
       <c r="F1295" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G1295">
         <v>0</v>
@@ -38351,13 +38834,13 @@
         <v>45985</v>
       </c>
       <c r="B1296" t="s">
-        <v>2659</v>
+        <v>2663</v>
       </c>
       <c r="C1296" t="s">
-        <v>2660</v>
+        <v>2664</v>
       </c>
       <c r="D1296" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E1296" t="s">
         <v>9</v>
@@ -38374,19 +38857,19 @@
         <v>45985</v>
       </c>
       <c r="B1297" t="s">
-        <v>2661</v>
+        <v>2665</v>
       </c>
       <c r="C1297" t="s">
-        <v>2662</v>
+        <v>2666</v>
       </c>
       <c r="D1297" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="E1297" t="s">
         <v>9</v>
       </c>
       <c r="F1297" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G1297">
         <v>0</v>
@@ -38397,13 +38880,13 @@
         <v>45985</v>
       </c>
       <c r="B1298" t="s">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="C1298" t="s">
-        <v>2664</v>
+        <v>2668</v>
       </c>
       <c r="D1298" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E1298" t="s">
         <v>9</v>
@@ -38420,10 +38903,10 @@
         <v>45985</v>
       </c>
       <c r="B1299" t="s">
-        <v>2665</v>
+        <v>2669</v>
       </c>
       <c r="C1299" t="s">
-        <v>2666</v>
+        <v>2670</v>
       </c>
       <c r="D1299" t="s">
         <v>8</v>
@@ -38432,7 +38915,7 @@
         <v>9</v>
       </c>
       <c r="F1299" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G1299">
         <v>0</v>
@@ -38443,13 +38926,13 @@
         <v>45985</v>
       </c>
       <c r="B1300" t="s">
-        <v>2667</v>
+        <v>2671</v>
       </c>
       <c r="C1300" t="s">
-        <v>2668</v>
+        <v>2672</v>
       </c>
       <c r="D1300" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E1300" t="s">
         <v>9</v>
@@ -38466,19 +38949,19 @@
         <v>45985</v>
       </c>
       <c r="B1301" t="s">
-        <v>2669</v>
+        <v>2673</v>
       </c>
       <c r="C1301" t="s">
-        <v>2670</v>
+        <v>2674</v>
       </c>
       <c r="D1301" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E1301" t="s">
         <v>9</v>
       </c>
       <c r="F1301" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G1301">
         <v>0</v>
@@ -38489,13 +38972,13 @@
         <v>45985</v>
       </c>
       <c r="B1302" t="s">
-        <v>2671</v>
+        <v>2675</v>
       </c>
       <c r="C1302" t="s">
-        <v>2672</v>
+        <v>2676</v>
       </c>
       <c r="D1302" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E1302" t="s">
         <v>9</v>
@@ -38512,19 +38995,19 @@
         <v>45985</v>
       </c>
       <c r="B1303" t="s">
-        <v>2673</v>
+        <v>2677</v>
       </c>
       <c r="C1303" t="s">
-        <v>2674</v>
+        <v>2678</v>
       </c>
       <c r="D1303" t="s">
-        <v>31</v>
+        <v>645</v>
       </c>
       <c r="E1303" t="s">
         <v>9</v>
       </c>
       <c r="F1303" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G1303">
         <v>0</v>
@@ -38535,13 +39018,13 @@
         <v>45985</v>
       </c>
       <c r="B1304" t="s">
-        <v>2675</v>
+        <v>2679</v>
       </c>
       <c r="C1304" t="s">
-        <v>2676</v>
+        <v>2680</v>
       </c>
       <c r="D1304" t="s">
-        <v>34</v>
+        <v>2681</v>
       </c>
       <c r="E1304" t="s">
         <v>9</v>
@@ -38558,16 +39041,16 @@
         <v>45985</v>
       </c>
       <c r="B1305" t="s">
-        <v>2677</v>
+        <v>623</v>
       </c>
       <c r="C1305" t="s">
-        <v>2678</v>
+        <v>624</v>
       </c>
       <c r="D1305" t="s">
-        <v>645</v>
+        <v>26</v>
       </c>
       <c r="E1305" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F1305" t="s">
         <v>28</v>
@@ -38581,13 +39064,13 @@
         <v>45985</v>
       </c>
       <c r="B1306" t="s">
-        <v>2679</v>
+        <v>2682</v>
       </c>
       <c r="C1306" t="s">
-        <v>2680</v>
+        <v>2683</v>
       </c>
       <c r="D1306" t="s">
-        <v>2681</v>
+        <v>31</v>
       </c>
       <c r="E1306" t="s">
         <v>9</v>
@@ -38604,16 +39087,16 @@
         <v>45985</v>
       </c>
       <c r="B1307" t="s">
-        <v>623</v>
+        <v>2684</v>
       </c>
       <c r="C1307" t="s">
-        <v>624</v>
+        <v>2685</v>
       </c>
       <c r="D1307" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E1307" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F1307" t="s">
         <v>28</v>
@@ -38627,16 +39110,16 @@
         <v>45985</v>
       </c>
       <c r="B1308" t="s">
-        <v>2682</v>
+        <v>2686</v>
       </c>
       <c r="C1308" t="s">
-        <v>2683</v>
+        <v>2687</v>
       </c>
       <c r="D1308" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="E1308" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F1308" t="s">
         <v>28</v>
@@ -38650,13 +39133,13 @@
         <v>45985</v>
       </c>
       <c r="B1309" t="s">
-        <v>2684</v>
+        <v>2688</v>
       </c>
       <c r="C1309" t="s">
-        <v>2685</v>
+        <v>2689</v>
       </c>
       <c r="D1309" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E1309" t="s">
         <v>9</v>
@@ -38673,16 +39156,16 @@
         <v>45985</v>
       </c>
       <c r="B1310" t="s">
-        <v>2686</v>
+        <v>2690</v>
       </c>
       <c r="C1310" t="s">
-        <v>2687</v>
+        <v>2691</v>
       </c>
       <c r="D1310" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="E1310" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F1310" t="s">
         <v>28</v>
@@ -38696,13 +39179,13 @@
         <v>45985</v>
       </c>
       <c r="B1311" t="s">
-        <v>2688</v>
+        <v>2692</v>
       </c>
       <c r="C1311" t="s">
-        <v>2689</v>
+        <v>2693</v>
       </c>
       <c r="D1311" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E1311" t="s">
         <v>9</v>
@@ -38719,16 +39202,16 @@
         <v>45985</v>
       </c>
       <c r="B1312" t="s">
-        <v>2690</v>
+        <v>2694</v>
       </c>
       <c r="C1312" t="s">
-        <v>2691</v>
+        <v>2695</v>
       </c>
       <c r="D1312" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E1312" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="F1312" t="s">
         <v>28</v>
@@ -38742,22 +39225,22 @@
         <v>45985</v>
       </c>
       <c r="B1313" t="s">
-        <v>2692</v>
+        <v>2696</v>
       </c>
       <c r="C1313" t="s">
-        <v>2693</v>
+        <v>2697</v>
       </c>
       <c r="D1313" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E1313" t="s">
         <v>9</v>
       </c>
       <c r="F1313" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1313" t="e">
-        <v>#N/A</v>
+        <v>101</v>
+      </c>
+      <c r="G1313" t="s">
+        <v>2872</v>
       </c>
     </row>
     <row r="1314" spans="1:7" x14ac:dyDescent="0.25">
@@ -38765,16 +39248,16 @@
         <v>45985</v>
       </c>
       <c r="B1314" t="s">
-        <v>2694</v>
+        <v>2698</v>
       </c>
       <c r="C1314" t="s">
-        <v>2695</v>
+        <v>2699</v>
       </c>
       <c r="D1314" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E1314" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="F1314" t="s">
         <v>28</v>
@@ -38785,22 +39268,22 @@
     </row>
     <row r="1315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1315" s="1">
-        <v>45985</v>
+        <v>45986</v>
       </c>
       <c r="B1315" t="s">
-        <v>2696</v>
+        <v>2700</v>
       </c>
       <c r="C1315" t="s">
-        <v>2697</v>
+        <v>2701</v>
       </c>
       <c r="D1315" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E1315" t="s">
         <v>9</v>
       </c>
       <c r="F1315" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G1315">
         <v>0</v>
@@ -38808,16 +39291,16 @@
     </row>
     <row r="1316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1316" s="1">
-        <v>45985</v>
+        <v>45986</v>
       </c>
       <c r="B1316" t="s">
-        <v>2698</v>
+        <v>2702</v>
       </c>
       <c r="C1316" t="s">
-        <v>2699</v>
+        <v>2703</v>
       </c>
       <c r="D1316" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E1316" t="s">
         <v>9</v>
@@ -38834,13 +39317,13 @@
         <v>45986</v>
       </c>
       <c r="B1317" t="s">
-        <v>2700</v>
+        <v>2704</v>
       </c>
       <c r="C1317" t="s">
-        <v>2701</v>
+        <v>2705</v>
       </c>
       <c r="D1317" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E1317" t="s">
         <v>9</v>
@@ -38857,13 +39340,13 @@
         <v>45986</v>
       </c>
       <c r="B1318" t="s">
-        <v>2702</v>
+        <v>2706</v>
       </c>
       <c r="C1318" t="s">
-        <v>2703</v>
+        <v>2707</v>
       </c>
       <c r="D1318" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="E1318" t="s">
         <v>9</v>
@@ -38880,13 +39363,13 @@
         <v>45986</v>
       </c>
       <c r="B1319" t="s">
-        <v>2704</v>
+        <v>2708</v>
       </c>
       <c r="C1319" t="s">
-        <v>2705</v>
+        <v>2709</v>
       </c>
       <c r="D1319" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="E1319" t="s">
         <v>9</v>
@@ -38903,16 +39386,16 @@
         <v>45986</v>
       </c>
       <c r="B1320" t="s">
-        <v>2706</v>
+        <v>2715</v>
       </c>
       <c r="C1320" t="s">
-        <v>2707</v>
+        <v>2716</v>
       </c>
       <c r="D1320" t="s">
-        <v>74</v>
+        <v>425</v>
       </c>
       <c r="E1320" t="s">
-        <v>9</v>
+        <v>426</v>
       </c>
       <c r="F1320" t="s">
         <v>28</v>
@@ -38926,21 +39409,1858 @@
         <v>45986</v>
       </c>
       <c r="B1321" t="s">
-        <v>2708</v>
+        <v>2717</v>
       </c>
       <c r="C1321" t="s">
-        <v>2709</v>
+        <v>2718</v>
       </c>
       <c r="D1321" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1321" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1322" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>2720</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1322" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1323" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1323" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1324" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>2724</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1324" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1325" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1325" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1326" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1326" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1327" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1327" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1328" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>2732</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1328" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1329" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>2734</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1329" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1330" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>2736</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1330" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1331" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1331" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1332" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1332" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1332" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1333" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>2742</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1333" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1334" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1334" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1335" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>2746</v>
+      </c>
+      <c r="D1335" t="s">
         <v>74</v>
       </c>
-      <c r="E1321" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1321" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1321">
+      <c r="E1335" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1335" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1336" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1336" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1337" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>2750</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1337" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1338" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>2752</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1338" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1338" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1339" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>2754</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1339" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1339" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1340" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1340" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1340" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1341" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>2758</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1341" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1342" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1342" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1343" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1343" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1344" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>2763</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1344" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1345" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>2764</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>2765</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1345" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1346" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>2767</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1346" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1347" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>2768</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>2769</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1347" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1347" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1348" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1348" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1348" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1349" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1349" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1350" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1350" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1350" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1351" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1351" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1352" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>2777</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1352" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1353" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>2779</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1353" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1353" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1354" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1354" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1355" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>2783</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1355" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1356" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>2785</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1356" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1357" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>2786</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1357" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1358" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>2789</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1358" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1359" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1359" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1360" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1360" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1361" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1361" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1362" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>2797</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1362" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1363" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1363" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1363" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1364" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>2798</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>2799</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1364" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1364" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1365" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1365" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1366" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>2803</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1366" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1367" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1367" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1367" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1368" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>2807</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1368" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1369" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>2808</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>2809</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1369" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1370" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>2811</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1370" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1371" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1371" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1372" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1372" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1373" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>2817</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1373" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1374" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>2818</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>2819</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1374" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1375" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>2821</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1375" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1375" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1376" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>2823</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1376" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1376" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1377" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>2824</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1377" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1377" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1378" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1378" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1378" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1379" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>2828</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>2829</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1379" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1380" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1380" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1380" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1381" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>2833</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1381" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1382" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1382" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1383" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1383" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1384" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1384" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1385" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1385" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1386" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1386" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1386" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1387" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E1387" t="s">
+        <v>688</v>
+      </c>
+      <c r="F1387" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1388" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>2458</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1388" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1388" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1389" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>2847</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1389" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1389" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1390" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>2849</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1390" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1390" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1391" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>2850</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>2851</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1391" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1391" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1392" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>2852</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>2853</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1392" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1392" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1393" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>2855</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1393" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1393" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1394" s="1">
+        <v>45987</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>2857</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1394" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1394" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1395" s="1">
+        <v>45987</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>2859</v>
+      </c>
+      <c r="D1395" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1395" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1395" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1396" s="1">
+        <v>45987</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>2861</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1396" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1396" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1397" s="1">
+        <v>45987</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>2863</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1397" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1397" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1398" s="1">
+        <v>45987</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>2865</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1398" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1399" s="1">
+        <v>45987</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1399" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1399" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1400" s="1">
+        <v>45987</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>2869</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1400" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1401" s="1">
+        <v>45987</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>2871</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1401" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1401">
         <v>0</v>
       </c>
     </row>

--- a/first-atlas/producao_2025-11.xlsx
+++ b/first-atlas/producao_2025-11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29525"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86D7484-B4D8-4E59-8925-92E33A071C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3169D299-4022-4B23-8954-7BC7065F35A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="1830" windowWidth="20730" windowHeight="11160" xr2:uid="{3FA0812B-7F53-402D-BAE5-61E81C02CB4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{3FA0812B-7F53-402D-BAE5-61E81C02CB4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7686" uniqueCount="3128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7704" uniqueCount="3134">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -8156,15 +8156,9 @@
     <t>CONSULTEXTIL CONSULTORIA LTDA</t>
   </si>
   <si>
-    <t xml:space="preserve">Ata de eleicao da diretoria com mandato vigente, devidamente registrado no orgao competente.&lt;br&gt;&lt;br&gt;Estatuto social atualizado e registrado no orgao competente	</t>
-  </si>
-  <si>
     <t xml:space="preserve">Estatuto social atualizado e registrado no orgao competente&lt;br&gt;&lt;br&gt;Ata de eleicao da diretoria  com mandato vigente, devidamente registrado no orgao competente </t>
   </si>
   <si>
-    <t xml:space="preserve">Contrato social da empresa VOOX ENGENHARIA LTDA, atualizado e registrado no orgao competente, com a devida clausula de administracao. </t>
-  </si>
-  <si>
     <t>61307587000170</t>
   </si>
   <si>
@@ -9423,6 +9417,30 @@
   </si>
   <si>
     <t>PAULO HENRIQUE GONZAGA SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>53363466000118</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LEONARDO TORRES DE SOUSA</t>
+  </si>
+  <si>
+    <t>62660713000139</t>
+  </si>
+  <si>
+    <t>LF CONSULTORIA E ADMINISTRACOES LTDA</t>
+  </si>
+  <si>
+    <t>63504262000103</t>
+  </si>
+  <si>
+    <t>F F DA SIVA</t>
+  </si>
+  <si>
+    <t>38798871000175</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANTONIO JOSE OLIVEIRA DA SILVA FORTES</t>
   </si>
 </sst>
 </file>
@@ -9794,9 +9812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCD3CE2-DBA2-4F4F-B6A3-11EE884EA727}">
-  <dimension ref="A1:G1529"/>
+  <dimension ref="A1:G1533"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1507" workbookViewId="0">
+      <selection activeCell="A1532" sqref="A1532"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9919,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45964</v>
       </c>
@@ -10996,8 +11016,8 @@
       <c r="F52" t="s">
         <v>28</v>
       </c>
-      <c r="G52">
-        <v>0</v>
+      <c r="G52" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -11939,6 +11959,9 @@
       <c r="F93" t="s">
         <v>28</v>
       </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
@@ -15708,8 +15731,8 @@
       <c r="F257" t="s">
         <v>101</v>
       </c>
-      <c r="G257" t="s">
-        <v>2705</v>
+      <c r="G257" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -20722,8 +20745,8 @@
       <c r="F475" t="s">
         <v>23</v>
       </c>
-      <c r="G475">
-        <v>0</v>
+      <c r="G475" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
@@ -25575,8 +25598,8 @@
       <c r="F686" t="s">
         <v>28</v>
       </c>
-      <c r="G686">
-        <v>0</v>
+      <c r="G686" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.25">
@@ -25621,6 +25644,9 @@
       <c r="F688" t="s">
         <v>28</v>
       </c>
+      <c r="G688">
+        <v>0</v>
+      </c>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
@@ -26559,10 +26585,10 @@
         <v>9</v>
       </c>
       <c r="F729" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="G729" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.25">
@@ -30104,7 +30130,7 @@
         <v>101</v>
       </c>
       <c r="G883" t="s">
-        <v>3013</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.25">
@@ -36035,7 +36061,7 @@
         <v>9</v>
       </c>
       <c r="F1141" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G1141">
         <v>0</v>
@@ -36219,7 +36245,7 @@
         <v>9</v>
       </c>
       <c r="F1149" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G1149">
         <v>0</v>
@@ -37001,7 +37027,7 @@
         <v>9</v>
       </c>
       <c r="F1183" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="G1183" t="s">
         <v>2538</v>
@@ -37461,7 +37487,7 @@
         <v>27</v>
       </c>
       <c r="F1203" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G1203">
         <v>0</v>
@@ -38105,10 +38131,10 @@
         <v>730</v>
       </c>
       <c r="F1231" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1231" t="s">
-        <v>2707</v>
+        <v>28</v>
+      </c>
+      <c r="G1231">
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:7" x14ac:dyDescent="0.25">
@@ -38128,7 +38154,7 @@
         <v>9</v>
       </c>
       <c r="F1232" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G1232">
         <v>0</v>
@@ -38208,10 +38234,10 @@
         <v>45983</v>
       </c>
       <c r="B1236" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="C1236" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="D1236" t="s">
         <v>74</v>
@@ -38404,7 +38430,7 @@
         <v>27</v>
       </c>
       <c r="F1244" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="G1244" t="s">
         <v>2538</v>
@@ -39925,7 +39951,7 @@
         <v>101</v>
       </c>
       <c r="G1310" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="1311" spans="1:7" x14ac:dyDescent="0.25">
@@ -40071,10 +40097,10 @@
         <v>45986</v>
       </c>
       <c r="B1317" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="C1317" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="D1317" t="s">
         <v>424</v>
@@ -40094,10 +40120,10 @@
         <v>45986</v>
       </c>
       <c r="B1318" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="C1318" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="D1318" t="s">
         <v>424</v>
@@ -40117,10 +40143,10 @@
         <v>45986</v>
       </c>
       <c r="B1319" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="C1319" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="D1319" t="s">
         <v>424</v>
@@ -40140,10 +40166,10 @@
         <v>45986</v>
       </c>
       <c r="B1320" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="C1320" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="D1320" t="s">
         <v>424</v>
@@ -40163,10 +40189,10 @@
         <v>45986</v>
       </c>
       <c r="B1321" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="C1321" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="D1321" t="s">
         <v>424</v>
@@ -40186,10 +40212,10 @@
         <v>45986</v>
       </c>
       <c r="B1322" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="C1322" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="D1322" t="s">
         <v>424</v>
@@ -40209,10 +40235,10 @@
         <v>45986</v>
       </c>
       <c r="B1323" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="C1323" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="D1323" t="s">
         <v>424</v>
@@ -40232,10 +40258,10 @@
         <v>45986</v>
       </c>
       <c r="B1324" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="C1324" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="D1324" t="s">
         <v>424</v>
@@ -40255,10 +40281,10 @@
         <v>45986</v>
       </c>
       <c r="B1325" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="C1325" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="D1325" t="s">
         <v>424</v>
@@ -40278,10 +40304,10 @@
         <v>45986</v>
       </c>
       <c r="B1326" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="C1326" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="D1326" t="s">
         <v>39</v>
@@ -40301,10 +40327,10 @@
         <v>45986</v>
       </c>
       <c r="B1327" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="C1327" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="D1327" t="s">
         <v>13</v>
@@ -40324,10 +40350,10 @@
         <v>45986</v>
       </c>
       <c r="B1328" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="C1328" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="D1328" t="s">
         <v>26</v>
@@ -40347,10 +40373,10 @@
         <v>45986</v>
       </c>
       <c r="B1329" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="C1329" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="D1329" t="s">
         <v>50</v>
@@ -40370,10 +40396,10 @@
         <v>45986</v>
       </c>
       <c r="B1330" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="C1330" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="D1330" t="s">
         <v>39</v>
@@ -40393,10 +40419,10 @@
         <v>45986</v>
       </c>
       <c r="B1331" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="C1331" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="D1331" t="s">
         <v>34</v>
@@ -40416,10 +40442,10 @@
         <v>45986</v>
       </c>
       <c r="B1332" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="C1332" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="D1332" t="s">
         <v>74</v>
@@ -40439,10 +40465,10 @@
         <v>45986</v>
       </c>
       <c r="B1333" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="C1333" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="D1333" t="s">
         <v>26</v>
@@ -40462,10 +40488,10 @@
         <v>45986</v>
       </c>
       <c r="B1334" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="C1334" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="D1334" t="s">
         <v>74</v>
@@ -40485,10 +40511,10 @@
         <v>45986</v>
       </c>
       <c r="B1335" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="C1335" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="D1335" t="s">
         <v>39</v>
@@ -40508,10 +40534,10 @@
         <v>45986</v>
       </c>
       <c r="B1336" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="C1336" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="D1336" t="s">
         <v>59</v>
@@ -40531,10 +40557,10 @@
         <v>45986</v>
       </c>
       <c r="B1337" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="C1337" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="D1337" t="s">
         <v>34</v>
@@ -40554,10 +40580,10 @@
         <v>45986</v>
       </c>
       <c r="B1338" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="C1338" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="D1338" t="s">
         <v>13</v>
@@ -40577,10 +40603,10 @@
         <v>45986</v>
       </c>
       <c r="B1339" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="C1339" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="D1339" t="s">
         <v>31</v>
@@ -40600,10 +40626,10 @@
         <v>45986</v>
       </c>
       <c r="B1340" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="C1340" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="D1340" t="s">
         <v>50</v>
@@ -40623,7 +40649,7 @@
         <v>45986</v>
       </c>
       <c r="B1341" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="D1341" t="s">
         <v>21</v>
@@ -40643,10 +40669,10 @@
         <v>45986</v>
       </c>
       <c r="B1342" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="C1342" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="D1342" t="s">
         <v>44</v>
@@ -40666,10 +40692,10 @@
         <v>45986</v>
       </c>
       <c r="B1343" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="C1343" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="D1343" t="s">
         <v>644</v>
@@ -40689,10 +40715,10 @@
         <v>45986</v>
       </c>
       <c r="B1344" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="C1344" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="D1344" t="s">
         <v>59</v>
@@ -40712,10 +40738,10 @@
         <v>45986</v>
       </c>
       <c r="B1345" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="C1345" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="D1345" t="s">
         <v>17</v>
@@ -40758,10 +40784,10 @@
         <v>45986</v>
       </c>
       <c r="B1347" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="C1347" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="D1347" t="s">
         <v>31</v>
@@ -40781,10 +40807,10 @@
         <v>45986</v>
       </c>
       <c r="B1348" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="C1348" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="D1348" t="s">
         <v>8</v>
@@ -40804,10 +40830,10 @@
         <v>45986</v>
       </c>
       <c r="B1349" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="C1349" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="D1349" t="s">
         <v>47</v>
@@ -40827,10 +40853,10 @@
         <v>45986</v>
       </c>
       <c r="B1350" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="C1350" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="D1350" t="s">
         <v>59</v>
@@ -40842,7 +40868,7 @@
         <v>14</v>
       </c>
       <c r="G1350" t="s">
-        <v>3014</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="1351" spans="1:7" x14ac:dyDescent="0.25">
@@ -40850,10 +40876,10 @@
         <v>45986</v>
       </c>
       <c r="B1351" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="C1351" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="D1351" t="s">
         <v>59</v>
@@ -40873,10 +40899,10 @@
         <v>45986</v>
       </c>
       <c r="B1352" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="C1352" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="D1352" t="s">
         <v>44</v>
@@ -40896,10 +40922,10 @@
         <v>45986</v>
       </c>
       <c r="B1353" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
       <c r="C1353" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="D1353" t="s">
         <v>59</v>
@@ -40919,10 +40945,10 @@
         <v>45986</v>
       </c>
       <c r="B1354" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="C1354" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
       <c r="D1354" t="s">
         <v>59</v>
@@ -40942,10 +40968,10 @@
         <v>45986</v>
       </c>
       <c r="B1355" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="C1355" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
       <c r="D1355" t="s">
         <v>44</v>
@@ -40965,10 +40991,10 @@
         <v>45986</v>
       </c>
       <c r="B1356" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
       <c r="C1356" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="D1356" t="s">
         <v>34</v>
@@ -40988,10 +41014,10 @@
         <v>45986</v>
       </c>
       <c r="B1357" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="C1357" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
       <c r="D1357" t="s">
         <v>47</v>
@@ -41011,10 +41037,10 @@
         <v>45986</v>
       </c>
       <c r="B1358" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="C1358" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="D1358" t="s">
         <v>17</v>
@@ -41034,10 +41060,10 @@
         <v>45986</v>
       </c>
       <c r="B1359" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="C1359" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="D1359" t="s">
         <v>44</v>
@@ -41080,10 +41106,10 @@
         <v>45986</v>
       </c>
       <c r="B1361" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="C1361" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
       <c r="D1361" t="s">
         <v>31</v>
@@ -41103,10 +41129,10 @@
         <v>45986</v>
       </c>
       <c r="B1362" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="C1362" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="D1362" t="s">
         <v>31</v>
@@ -41126,10 +41152,10 @@
         <v>45986</v>
       </c>
       <c r="B1363" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="C1363" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
       <c r="D1363" t="s">
         <v>8</v>
@@ -41149,10 +41175,10 @@
         <v>45986</v>
       </c>
       <c r="B1364" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="C1364" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="D1364" t="s">
         <v>31</v>
@@ -41172,10 +41198,10 @@
         <v>45986</v>
       </c>
       <c r="B1365" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
       <c r="C1365" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="D1365" t="s">
         <v>74</v>
@@ -41195,10 +41221,10 @@
         <v>45986</v>
       </c>
       <c r="B1366" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
       <c r="C1366" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
       <c r="D1366" t="s">
         <v>50</v>
@@ -41218,10 +41244,10 @@
         <v>45986</v>
       </c>
       <c r="B1367" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
       <c r="C1367" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
       <c r="D1367" t="s">
         <v>155</v>
@@ -41241,10 +41267,10 @@
         <v>45986</v>
       </c>
       <c r="B1368" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="C1368" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
       <c r="D1368" t="s">
         <v>8</v>
@@ -41264,10 +41290,10 @@
         <v>45986</v>
       </c>
       <c r="B1369" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
       <c r="C1369" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
       <c r="D1369" t="s">
         <v>17</v>
@@ -41287,10 +41313,10 @@
         <v>45986</v>
       </c>
       <c r="B1370" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="C1370" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="D1370" t="s">
         <v>155</v>
@@ -41310,10 +41336,10 @@
         <v>45986</v>
       </c>
       <c r="B1371" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="C1371" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
       <c r="D1371" t="s">
         <v>47</v>
@@ -41333,10 +41359,10 @@
         <v>45986</v>
       </c>
       <c r="B1372" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="C1372" t="s">
-        <v>2816</v>
+        <v>2814</v>
       </c>
       <c r="D1372" t="s">
         <v>644</v>
@@ -41356,10 +41382,10 @@
         <v>45986</v>
       </c>
       <c r="B1373" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
       <c r="C1373" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
       <c r="D1373" t="s">
         <v>26</v>
@@ -41379,10 +41405,10 @@
         <v>45986</v>
       </c>
       <c r="B1374" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
       <c r="C1374" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="D1374" t="s">
         <v>17</v>
@@ -41402,10 +41428,10 @@
         <v>45986</v>
       </c>
       <c r="B1375" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="C1375" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="D1375" t="s">
         <v>13</v>
@@ -41425,10 +41451,10 @@
         <v>45986</v>
       </c>
       <c r="B1376" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="C1376" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="D1376" t="s">
         <v>44</v>
@@ -41448,10 +41474,10 @@
         <v>45986</v>
       </c>
       <c r="B1377" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="C1377" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
       <c r="D1377" t="s">
         <v>74</v>
@@ -41471,10 +41497,10 @@
         <v>45986</v>
       </c>
       <c r="B1378" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
       <c r="C1378" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="D1378" t="s">
         <v>26</v>
@@ -41494,10 +41520,10 @@
         <v>45986</v>
       </c>
       <c r="B1379" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="C1379" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="D1379" t="s">
         <v>59</v>
@@ -41517,10 +41543,10 @@
         <v>45986</v>
       </c>
       <c r="B1380" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="C1380" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="D1380" t="s">
         <v>44</v>
@@ -41540,10 +41566,10 @@
         <v>45986</v>
       </c>
       <c r="B1381" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="C1381" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="D1381" t="s">
         <v>59</v>
@@ -41563,10 +41589,10 @@
         <v>45986</v>
       </c>
       <c r="B1382" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="C1382" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="D1382" t="s">
         <v>644</v>
@@ -41586,10 +41612,10 @@
         <v>45986</v>
       </c>
       <c r="B1383" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="C1383" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="D1383" t="s">
         <v>50</v>
@@ -41609,10 +41635,10 @@
         <v>45986</v>
       </c>
       <c r="B1384" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="C1384" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="D1384" t="s">
         <v>2205</v>
@@ -41655,10 +41681,10 @@
         <v>45986</v>
       </c>
       <c r="B1386" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="C1386" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D1386" t="s">
         <v>59</v>
@@ -41678,10 +41704,10 @@
         <v>45986</v>
       </c>
       <c r="B1387" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="C1387" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="D1387" t="s">
         <v>34</v>
@@ -41701,10 +41727,10 @@
         <v>45986</v>
       </c>
       <c r="B1388" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="C1388" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="D1388" t="s">
         <v>8</v>
@@ -41724,10 +41750,10 @@
         <v>45986</v>
       </c>
       <c r="B1389" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="C1389" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D1389" t="s">
         <v>31</v>
@@ -41747,10 +41773,10 @@
         <v>45986</v>
       </c>
       <c r="B1390" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="C1390" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="D1390" t="s">
         <v>59</v>
@@ -41770,10 +41796,10 @@
         <v>45987</v>
       </c>
       <c r="B1391" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="C1391" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="D1391" t="s">
         <v>26</v>
@@ -41793,10 +41819,10 @@
         <v>45987</v>
       </c>
       <c r="B1392" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="C1392" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="D1392" t="s">
         <v>224</v>
@@ -41816,10 +41842,10 @@
         <v>45987</v>
       </c>
       <c r="B1393" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="C1393" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="D1393" t="s">
         <v>47</v>
@@ -41839,10 +41865,10 @@
         <v>45987</v>
       </c>
       <c r="B1394" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="C1394" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="D1394" t="s">
         <v>21</v>
@@ -41862,10 +41888,10 @@
         <v>45987</v>
       </c>
       <c r="B1395" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="C1395" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="D1395" t="s">
         <v>26</v>
@@ -41885,10 +41911,10 @@
         <v>45987</v>
       </c>
       <c r="B1396" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="C1396" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="D1396" t="s">
         <v>224</v>
@@ -41908,10 +41934,10 @@
         <v>45987</v>
       </c>
       <c r="B1397" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="C1397" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="D1397" t="s">
         <v>21</v>
@@ -41931,10 +41957,10 @@
         <v>45987</v>
       </c>
       <c r="B1398" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="C1398" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="D1398" t="s">
         <v>224</v>
@@ -41954,10 +41980,10 @@
         <v>45987</v>
       </c>
       <c r="B1399" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="C1399" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="D1399" t="s">
         <v>26</v>
@@ -41977,13 +42003,13 @@
         <v>45987</v>
       </c>
       <c r="B1400" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>2869</v>
+      </c>
+      <c r="D1400" t="s">
         <v>2870</v>
-      </c>
-      <c r="C1400" t="s">
-        <v>2871</v>
-      </c>
-      <c r="D1400" t="s">
-        <v>2872</v>
       </c>
       <c r="E1400" t="s">
         <v>22</v>
@@ -42000,10 +42026,10 @@
         <v>45987</v>
       </c>
       <c r="B1401" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="C1401" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="D1401" t="s">
         <v>50</v>
@@ -42023,10 +42049,10 @@
         <v>45987</v>
       </c>
       <c r="B1402" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="C1402" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="D1402" t="s">
         <v>155</v>
@@ -42035,7 +42061,7 @@
         <v>27</v>
       </c>
       <c r="F1402" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1402">
         <v>0</v>
@@ -42046,10 +42072,10 @@
         <v>45987</v>
       </c>
       <c r="B1403" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="C1403" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="D1403" t="s">
         <v>21</v>
@@ -42058,7 +42084,7 @@
         <v>94</v>
       </c>
       <c r="F1403" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1403">
         <v>0</v>
@@ -42069,10 +42095,10 @@
         <v>45987</v>
       </c>
       <c r="B1404" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="C1404" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="D1404" t="s">
         <v>39</v>
@@ -42081,7 +42107,7 @@
         <v>27</v>
       </c>
       <c r="F1404" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1404">
         <v>0</v>
@@ -42092,10 +42118,10 @@
         <v>45987</v>
       </c>
       <c r="B1405" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="C1405" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="D1405" t="s">
         <v>17</v>
@@ -42115,10 +42141,10 @@
         <v>45987</v>
       </c>
       <c r="B1406" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="C1406" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="D1406" t="s">
         <v>26</v>
@@ -42127,7 +42153,7 @@
         <v>27</v>
       </c>
       <c r="F1406" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1406">
         <v>0</v>
@@ -42138,10 +42164,10 @@
         <v>45987</v>
       </c>
       <c r="B1407" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="C1407" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="D1407" t="s">
         <v>8</v>
@@ -42161,10 +42187,10 @@
         <v>45987</v>
       </c>
       <c r="B1408" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="C1408" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="D1408" t="s">
         <v>47</v>
@@ -42184,10 +42210,10 @@
         <v>45987</v>
       </c>
       <c r="B1409" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="C1409" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="D1409" t="s">
         <v>26</v>
@@ -42196,7 +42222,7 @@
         <v>27</v>
       </c>
       <c r="F1409" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G1409">
         <v>0</v>
@@ -42207,10 +42233,10 @@
         <v>45987</v>
       </c>
       <c r="B1410" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="C1410" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="D1410" t="s">
         <v>8</v>
@@ -42230,10 +42256,10 @@
         <v>45987</v>
       </c>
       <c r="B1411" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="C1411" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="D1411" t="s">
         <v>8</v>
@@ -42253,10 +42279,10 @@
         <v>45987</v>
       </c>
       <c r="B1412" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="C1412" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="D1412" t="s">
         <v>8</v>
@@ -42276,10 +42302,10 @@
         <v>45987</v>
       </c>
       <c r="B1413" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="C1413" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="D1413" t="s">
         <v>47</v>
@@ -42288,7 +42314,7 @@
         <v>9</v>
       </c>
       <c r="F1413" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1413">
         <v>0</v>
@@ -42299,10 +42325,10 @@
         <v>45987</v>
       </c>
       <c r="B1414" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="C1414" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="D1414" t="s">
         <v>50</v>
@@ -42322,10 +42348,10 @@
         <v>45987</v>
       </c>
       <c r="B1415" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="C1415" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="D1415" t="s">
         <v>31</v>
@@ -42345,10 +42371,10 @@
         <v>45987</v>
       </c>
       <c r="B1416" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="C1416" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="D1416" t="s">
         <v>8</v>
@@ -42368,10 +42394,10 @@
         <v>45987</v>
       </c>
       <c r="B1417" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="C1417" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="D1417" t="s">
         <v>17</v>
@@ -42391,10 +42417,10 @@
         <v>45987</v>
       </c>
       <c r="B1418" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="C1418" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="D1418" t="s">
         <v>50</v>
@@ -42403,7 +42429,7 @@
         <v>27</v>
       </c>
       <c r="F1418" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1418">
         <v>0</v>
@@ -42414,10 +42440,10 @@
         <v>45987</v>
       </c>
       <c r="B1419" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="C1419" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="D1419" t="s">
         <v>17</v>
@@ -42437,10 +42463,10 @@
         <v>45987</v>
       </c>
       <c r="B1420" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="C1420" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="D1420" t="s">
         <v>155</v>
@@ -42460,10 +42486,10 @@
         <v>45987</v>
       </c>
       <c r="B1421" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="C1421" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="D1421" t="s">
         <v>59</v>
@@ -42495,7 +42521,7 @@
         <v>9</v>
       </c>
       <c r="F1422" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1422">
         <v>0</v>
@@ -42506,10 +42532,10 @@
         <v>45987</v>
       </c>
       <c r="B1423" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="C1423" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="D1423" t="s">
         <v>21</v>
@@ -42529,10 +42555,10 @@
         <v>45987</v>
       </c>
       <c r="B1424" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="C1424" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="D1424" t="s">
         <v>17</v>
@@ -42541,7 +42567,7 @@
         <v>27</v>
       </c>
       <c r="F1424" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1424">
         <v>0</v>
@@ -42552,10 +42578,10 @@
         <v>45987</v>
       </c>
       <c r="B1425" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="C1425" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="D1425" t="s">
         <v>26</v>
@@ -42575,10 +42601,10 @@
         <v>45987</v>
       </c>
       <c r="B1426" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="C1426" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="D1426" t="s">
         <v>13</v>
@@ -42598,10 +42624,10 @@
         <v>45987</v>
       </c>
       <c r="B1427" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="C1427" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="D1427" t="s">
         <v>155</v>
@@ -42610,7 +42636,10 @@
         <v>9</v>
       </c>
       <c r="F1427" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="G1427">
+        <v>0</v>
       </c>
     </row>
     <row r="1428" spans="1:7" x14ac:dyDescent="0.25">
@@ -42618,10 +42647,10 @@
         <v>45987</v>
       </c>
       <c r="B1428" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="C1428" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="D1428" t="s">
         <v>8</v>
@@ -42641,10 +42670,10 @@
         <v>45987</v>
       </c>
       <c r="B1429" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="C1429" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="D1429" t="s">
         <v>17</v>
@@ -42664,10 +42693,10 @@
         <v>45987</v>
       </c>
       <c r="B1430" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="C1430" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="D1430" t="s">
         <v>155</v>
@@ -42676,7 +42705,7 @@
         <v>9</v>
       </c>
       <c r="F1430" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1430">
         <v>0</v>
@@ -42687,10 +42716,10 @@
         <v>45987</v>
       </c>
       <c r="B1431" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="C1431" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="D1431" t="s">
         <v>644</v>
@@ -42710,10 +42739,10 @@
         <v>45987</v>
       </c>
       <c r="B1432" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="C1432" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="D1432" t="s">
         <v>17</v>
@@ -42722,7 +42751,7 @@
         <v>9</v>
       </c>
       <c r="F1432" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1432">
         <v>0</v>
@@ -42733,10 +42762,10 @@
         <v>45987</v>
       </c>
       <c r="B1433" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="C1433" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="D1433" t="s">
         <v>31</v>
@@ -42756,10 +42785,10 @@
         <v>45987</v>
       </c>
       <c r="B1434" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="C1434" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="D1434" t="s">
         <v>50</v>
@@ -42779,10 +42808,10 @@
         <v>45987</v>
       </c>
       <c r="B1435" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="C1435" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="D1435" t="s">
         <v>39</v>
@@ -42802,10 +42831,10 @@
         <v>45987</v>
       </c>
       <c r="B1436" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="C1436" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="D1436" t="s">
         <v>44</v>
@@ -42825,10 +42854,10 @@
         <v>45987</v>
       </c>
       <c r="B1437" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="C1437" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="D1437" t="s">
         <v>31</v>
@@ -42848,10 +42877,10 @@
         <v>45987</v>
       </c>
       <c r="B1438" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="C1438" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="D1438" t="s">
         <v>26</v>
@@ -42871,10 +42900,10 @@
         <v>45987</v>
       </c>
       <c r="B1439" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="C1439" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="D1439" t="s">
         <v>34</v>
@@ -42917,10 +42946,10 @@
         <v>45987</v>
       </c>
       <c r="B1441" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="C1441" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="D1441" t="s">
         <v>50</v>
@@ -42940,10 +42969,10 @@
         <v>45987</v>
       </c>
       <c r="B1442" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="C1442" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="D1442" t="s">
         <v>116</v>
@@ -42963,10 +42992,10 @@
         <v>45987</v>
       </c>
       <c r="B1443" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="C1443" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="D1443" t="s">
         <v>13</v>
@@ -42986,10 +43015,10 @@
         <v>45987</v>
       </c>
       <c r="B1444" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="C1444" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="D1444" t="s">
         <v>21</v>
@@ -43009,10 +43038,10 @@
         <v>45987</v>
       </c>
       <c r="B1445" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="C1445" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="D1445" t="s">
         <v>31</v>
@@ -43032,10 +43061,10 @@
         <v>45987</v>
       </c>
       <c r="B1446" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
       <c r="C1446" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
       <c r="D1446" t="s">
         <v>8</v>
@@ -43055,10 +43084,10 @@
         <v>45987</v>
       </c>
       <c r="B1447" t="s">
-        <v>2961</v>
+        <v>2959</v>
       </c>
       <c r="C1447" t="s">
-        <v>2962</v>
+        <v>2960</v>
       </c>
       <c r="D1447" t="s">
         <v>26</v>
@@ -43078,10 +43107,10 @@
         <v>45987</v>
       </c>
       <c r="B1448" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
       <c r="C1448" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
       <c r="D1448" t="s">
         <v>26</v>
@@ -43101,10 +43130,10 @@
         <v>45987</v>
       </c>
       <c r="B1449" t="s">
-        <v>2965</v>
+        <v>2963</v>
       </c>
       <c r="C1449" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="D1449" t="s">
         <v>39</v>
@@ -43124,10 +43153,10 @@
         <v>45987</v>
       </c>
       <c r="B1450" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="C1450" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="D1450" t="s">
         <v>50</v>
@@ -43147,10 +43176,10 @@
         <v>45987</v>
       </c>
       <c r="B1451" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
       <c r="C1451" t="s">
-        <v>2970</v>
+        <v>2968</v>
       </c>
       <c r="D1451" t="s">
         <v>47</v>
@@ -43170,10 +43199,10 @@
         <v>45987</v>
       </c>
       <c r="B1452" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
       <c r="C1452" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="D1452" t="s">
         <v>31</v>
@@ -43193,10 +43222,10 @@
         <v>45987</v>
       </c>
       <c r="B1453" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="C1453" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="D1453" t="s">
         <v>26</v>
@@ -43216,10 +43245,10 @@
         <v>45987</v>
       </c>
       <c r="B1454" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="C1454" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
       <c r="D1454" t="s">
         <v>34</v>
@@ -43239,10 +43268,10 @@
         <v>45987</v>
       </c>
       <c r="B1455" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="C1455" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="D1455" t="s">
         <v>644</v>
@@ -43262,10 +43291,10 @@
         <v>45987</v>
       </c>
       <c r="B1456" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="C1456" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="D1456" t="s">
         <v>8</v>
@@ -43275,6 +43304,9 @@
       </c>
       <c r="F1456" t="s">
         <v>28</v>
+      </c>
+      <c r="G1456">
+        <v>0</v>
       </c>
     </row>
     <row r="1457" spans="1:7" x14ac:dyDescent="0.25">
@@ -43282,10 +43314,10 @@
         <v>45987</v>
       </c>
       <c r="B1457" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="C1457" t="s">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="D1457" t="s">
         <v>13</v>
@@ -43305,10 +43337,10 @@
         <v>45987</v>
       </c>
       <c r="B1458" t="s">
-        <v>2983</v>
+        <v>2981</v>
       </c>
       <c r="C1458" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
       <c r="D1458" t="s">
         <v>424</v>
@@ -43328,10 +43360,10 @@
         <v>45987</v>
       </c>
       <c r="B1459" t="s">
-        <v>2985</v>
+        <v>2983</v>
       </c>
       <c r="C1459" t="s">
-        <v>2986</v>
+        <v>2984</v>
       </c>
       <c r="D1459" t="s">
         <v>424</v>
@@ -43351,10 +43383,10 @@
         <v>45987</v>
       </c>
       <c r="B1460" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="C1460" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="D1460" t="s">
         <v>424</v>
@@ -43374,10 +43406,10 @@
         <v>45987</v>
       </c>
       <c r="B1461" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="C1461" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="D1461" t="s">
         <v>424</v>
@@ -43397,10 +43429,10 @@
         <v>45987</v>
       </c>
       <c r="B1462" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="C1462" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="D1462" t="s">
         <v>424</v>
@@ -43420,10 +43452,10 @@
         <v>45988</v>
       </c>
       <c r="B1463" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="C1463" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="D1463" t="s">
         <v>21</v>
@@ -43443,10 +43475,10 @@
         <v>45988</v>
       </c>
       <c r="B1464" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="C1464" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="D1464" t="s">
         <v>17</v>
@@ -43466,10 +43498,10 @@
         <v>45988</v>
       </c>
       <c r="B1465" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
       <c r="C1465" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
       <c r="D1465" t="s">
         <v>224</v>
@@ -43489,10 +43521,10 @@
         <v>45988</v>
       </c>
       <c r="B1466" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
       <c r="C1466" t="s">
-        <v>3000</v>
+        <v>2998</v>
       </c>
       <c r="D1466" t="s">
         <v>8</v>
@@ -43512,10 +43544,10 @@
         <v>45988</v>
       </c>
       <c r="B1467" t="s">
-        <v>3001</v>
+        <v>2999</v>
       </c>
       <c r="C1467" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="D1467" t="s">
         <v>21</v>
@@ -43535,10 +43567,10 @@
         <v>45988</v>
       </c>
       <c r="B1468" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="C1468" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="D1468" t="s">
         <v>74</v>
@@ -43558,10 +43590,10 @@
         <v>45988</v>
       </c>
       <c r="B1469" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="C1469" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="D1469" t="s">
         <v>8</v>
@@ -43581,10 +43613,10 @@
         <v>45988</v>
       </c>
       <c r="B1470" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="C1470" t="s">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="D1470" t="s">
         <v>13</v>
@@ -43604,10 +43636,10 @@
         <v>45988</v>
       </c>
       <c r="B1471" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="C1471" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="D1471" t="s">
         <v>74</v>
@@ -43627,10 +43659,10 @@
         <v>45988</v>
       </c>
       <c r="B1472" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="C1472" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="D1472" t="s">
         <v>26</v>
@@ -43645,15 +43677,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1473" s="1">
         <v>45988</v>
       </c>
       <c r="B1473" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="C1473" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
       <c r="D1473" t="s">
         <v>26</v>
@@ -43662,18 +43694,21 @@
         <v>9</v>
       </c>
       <c r="F1473" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1474" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G1473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1474" s="1">
         <v>45988</v>
       </c>
       <c r="B1474" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="C1474" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="D1474" t="s">
         <v>74</v>
@@ -43684,16 +43719,19 @@
       <c r="F1474" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1475" s="1">
         <v>45988</v>
       </c>
       <c r="B1475" t="s">
-        <v>3019</v>
+        <v>3017</v>
       </c>
       <c r="C1475" t="s">
-        <v>3020</v>
+        <v>3018</v>
       </c>
       <c r="D1475" t="s">
         <v>8</v>
@@ -43702,18 +43740,21 @@
         <v>9</v>
       </c>
       <c r="F1475" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1476" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G1475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1476" s="1">
         <v>45988</v>
       </c>
       <c r="B1476" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
       <c r="C1476" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="D1476" t="s">
         <v>26</v>
@@ -43724,16 +43765,19 @@
       <c r="F1476" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1477" s="1">
         <v>45988</v>
       </c>
       <c r="B1477" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="C1477" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
       <c r="D1477" t="s">
         <v>21</v>
@@ -43744,16 +43788,19 @@
       <c r="F1477" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1478" s="1">
         <v>45988</v>
       </c>
       <c r="B1478" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
       <c r="C1478" t="s">
-        <v>3026</v>
+        <v>3024</v>
       </c>
       <c r="D1478" t="s">
         <v>31</v>
@@ -43764,16 +43811,19 @@
       <c r="F1478" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1479" s="1">
         <v>45988</v>
       </c>
       <c r="B1479" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
       <c r="C1479" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="D1479" t="s">
         <v>8</v>
@@ -43784,16 +43834,19 @@
       <c r="F1479" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1480" s="1">
         <v>45988</v>
       </c>
       <c r="B1480" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
       <c r="C1480" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
       <c r="D1480" t="s">
         <v>44</v>
@@ -43804,16 +43857,19 @@
       <c r="F1480" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1481" s="1">
         <v>45988</v>
       </c>
       <c r="B1481" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="C1481" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
       <c r="D1481" t="s">
         <v>21</v>
@@ -43822,18 +43878,21 @@
         <v>94</v>
       </c>
       <c r="F1481" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1482" spans="1:6" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="G1481" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1482" s="1">
         <v>45988</v>
       </c>
       <c r="B1482" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
       <c r="C1482" t="s">
-        <v>3034</v>
+        <v>3032</v>
       </c>
       <c r="D1482" t="s">
         <v>26</v>
@@ -43844,16 +43903,19 @@
       <c r="F1482" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="1483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1483" s="1">
         <v>45988</v>
       </c>
       <c r="B1483" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="C1483" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
       <c r="D1483" t="s">
         <v>74</v>
@@ -43864,16 +43926,19 @@
       <c r="F1483" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1484" s="1">
         <v>45988</v>
       </c>
       <c r="B1484" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
       <c r="C1484" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
       <c r="D1484" t="s">
         <v>31</v>
@@ -43882,18 +43947,21 @@
         <v>9</v>
       </c>
       <c r="F1484" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1485" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G1484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1485" s="1">
         <v>45988</v>
       </c>
       <c r="B1485" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="C1485" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="D1485" t="s">
         <v>31</v>
@@ -43904,16 +43972,19 @@
       <c r="F1485" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1486" s="1">
         <v>45988</v>
       </c>
       <c r="B1486" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="C1486" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="D1486" t="s">
         <v>155</v>
@@ -43924,16 +43995,19 @@
       <c r="F1486" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="1487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1487" s="1">
         <v>45988</v>
       </c>
       <c r="B1487" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="C1487" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="D1487" t="s">
         <v>155</v>
@@ -43944,16 +44018,19 @@
       <c r="F1487" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="1488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1488" s="1">
         <v>45988</v>
       </c>
       <c r="B1488" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
       <c r="C1488" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="D1488" t="s">
         <v>59</v>
@@ -43964,16 +44041,19 @@
       <c r="F1488" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1489" s="1">
         <v>45988</v>
       </c>
       <c r="B1489" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="C1489" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="D1489" t="s">
         <v>155</v>
@@ -43984,16 +44064,19 @@
       <c r="F1489" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1490" s="1">
         <v>45988</v>
       </c>
       <c r="B1490" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="C1490" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="D1490" t="s">
         <v>26</v>
@@ -44004,19 +44087,22 @@
       <c r="F1490" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1491" s="1">
         <v>45988</v>
       </c>
       <c r="B1491" t="s">
+        <v>3049</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>3050</v>
+      </c>
+      <c r="D1491" t="s">
         <v>3051</v>
-      </c>
-      <c r="C1491" t="s">
-        <v>3052</v>
-      </c>
-      <c r="D1491" t="s">
-        <v>3053</v>
       </c>
       <c r="E1491" t="s">
         <v>94</v>
@@ -44024,16 +44110,19 @@
       <c r="F1491" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1492" s="1">
         <v>45988</v>
       </c>
       <c r="B1492" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="C1492" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="D1492" t="s">
         <v>31</v>
@@ -44044,19 +44133,22 @@
       <c r="F1492" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="1493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1493" s="1">
         <v>45988</v>
       </c>
       <c r="B1493" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="C1493" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="D1493" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
       <c r="E1493" t="s">
         <v>94</v>
@@ -44064,16 +44156,19 @@
       <c r="F1493" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1494" s="1">
         <v>45988</v>
       </c>
       <c r="B1494" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="C1494" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="D1494" t="s">
         <v>17</v>
@@ -44082,18 +44177,21 @@
         <v>9</v>
       </c>
       <c r="F1494" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1495" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G1494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1495" s="1">
         <v>45988</v>
       </c>
       <c r="B1495" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="C1495" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
       <c r="D1495" t="s">
         <v>17</v>
@@ -44104,16 +44202,19 @@
       <c r="F1495" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1496" s="1">
         <v>45988</v>
       </c>
       <c r="B1496" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="C1496" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="D1496" t="s">
         <v>74</v>
@@ -44124,16 +44225,19 @@
       <c r="F1496" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1497" s="1">
         <v>45988</v>
       </c>
       <c r="B1497" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="C1497" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="D1497" t="s">
         <v>21</v>
@@ -44144,16 +44248,19 @@
       <c r="F1497" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1498" s="1">
         <v>45988</v>
       </c>
       <c r="B1498" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
       <c r="C1498" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="D1498" t="s">
         <v>44</v>
@@ -44164,16 +44271,19 @@
       <c r="F1498" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1499" s="1">
         <v>45988</v>
       </c>
       <c r="B1499" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="C1499" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="D1499" t="s">
         <v>34</v>
@@ -44184,16 +44294,19 @@
       <c r="F1499" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1500" s="1">
         <v>45988</v>
       </c>
       <c r="B1500" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="C1500" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
       <c r="D1500" t="s">
         <v>26</v>
@@ -44204,16 +44317,19 @@
       <c r="F1500" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1501" s="1">
         <v>45988</v>
       </c>
       <c r="B1501" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="C1501" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="D1501" t="s">
         <v>17</v>
@@ -44224,16 +44340,19 @@
       <c r="F1501" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="1502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1502" s="1">
         <v>45988</v>
       </c>
       <c r="B1502" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="C1502" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
       <c r="D1502" t="s">
         <v>17</v>
@@ -44244,16 +44363,19 @@
       <c r="F1502" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1503" s="1">
         <v>45988</v>
       </c>
       <c r="B1503" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="C1503" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
       <c r="D1503" t="s">
         <v>8</v>
@@ -44264,16 +44386,19 @@
       <c r="F1503" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1504" s="1">
         <v>45988</v>
       </c>
       <c r="B1504" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="C1504" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
       <c r="D1504" t="s">
         <v>8</v>
@@ -44284,16 +44409,19 @@
       <c r="F1504" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1505" s="1">
         <v>45988</v>
       </c>
       <c r="B1505" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="C1505" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="D1505" t="s">
         <v>31</v>
@@ -44304,16 +44432,19 @@
       <c r="F1505" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="1506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1506" s="1">
         <v>45988</v>
       </c>
       <c r="B1506" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="C1506" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="D1506" t="s">
         <v>50</v>
@@ -44324,16 +44455,19 @@
       <c r="F1506" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1507" s="1">
         <v>45988</v>
       </c>
       <c r="B1507" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C1507" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="D1507" t="s">
         <v>74</v>
@@ -44342,18 +44476,21 @@
         <v>9</v>
       </c>
       <c r="F1507" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1508" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G1507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1508" s="1">
         <v>45988</v>
       </c>
       <c r="B1508" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
       <c r="C1508" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
       <c r="D1508" t="s">
         <v>17</v>
@@ -44362,18 +44499,21 @@
         <v>9</v>
       </c>
       <c r="F1508" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1509" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G1508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1509" s="1">
         <v>45988</v>
       </c>
       <c r="B1509" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
       <c r="C1509" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
       <c r="D1509" t="s">
         <v>644</v>
@@ -44384,16 +44524,19 @@
       <c r="F1509" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1510" s="1">
         <v>45988</v>
       </c>
       <c r="B1510" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="C1510" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="D1510" t="s">
         <v>116</v>
@@ -44404,16 +44547,19 @@
       <c r="F1510" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="1511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1511" s="1">
         <v>45988</v>
       </c>
       <c r="B1511" t="s">
-        <v>3092</v>
+        <v>3090</v>
       </c>
       <c r="C1511" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="D1511" t="s">
         <v>34</v>
@@ -44424,16 +44570,19 @@
       <c r="F1511" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1512" s="1">
         <v>45988</v>
       </c>
       <c r="B1512" t="s">
-        <v>3094</v>
+        <v>3092</v>
       </c>
       <c r="C1512" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
       <c r="D1512" t="s">
         <v>59</v>
@@ -44444,16 +44593,19 @@
       <c r="F1512" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1513" s="1">
         <v>45988</v>
       </c>
       <c r="B1513" t="s">
-        <v>3096</v>
+        <v>3094</v>
       </c>
       <c r="C1513" t="s">
-        <v>3097</v>
+        <v>3095</v>
       </c>
       <c r="D1513" t="s">
         <v>17</v>
@@ -44464,16 +44616,19 @@
       <c r="F1513" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1514" s="1">
         <v>45988</v>
       </c>
       <c r="B1514" t="s">
-        <v>3098</v>
+        <v>3096</v>
       </c>
       <c r="C1514" t="s">
-        <v>3099</v>
+        <v>3097</v>
       </c>
       <c r="D1514" t="s">
         <v>17</v>
@@ -44484,16 +44639,19 @@
       <c r="F1514" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1515" s="1">
         <v>45988</v>
       </c>
       <c r="B1515" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
       <c r="C1515" t="s">
-        <v>3101</v>
+        <v>3099</v>
       </c>
       <c r="D1515" t="s">
         <v>44</v>
@@ -44502,18 +44660,21 @@
         <v>9</v>
       </c>
       <c r="F1515" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1516" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G1515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1516" s="1">
         <v>45988</v>
       </c>
       <c r="B1516" t="s">
-        <v>3102</v>
+        <v>3100</v>
       </c>
       <c r="C1516" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
       <c r="D1516" t="s">
         <v>59</v>
@@ -44524,16 +44685,19 @@
       <c r="F1516" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1517" s="1">
         <v>45988</v>
       </c>
       <c r="B1517" t="s">
-        <v>3104</v>
+        <v>3102</v>
       </c>
       <c r="C1517" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
       <c r="D1517" t="s">
         <v>1430</v>
@@ -44544,16 +44708,19 @@
       <c r="F1517" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1518" s="1">
         <v>45988</v>
       </c>
       <c r="B1518" t="s">
-        <v>3106</v>
+        <v>3104</v>
       </c>
       <c r="C1518" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="D1518" t="s">
         <v>44</v>
@@ -44564,16 +44731,19 @@
       <c r="F1518" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1519" s="1">
         <v>45988</v>
       </c>
       <c r="B1519" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="C1519" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="D1519" t="s">
         <v>21</v>
@@ -44584,16 +44754,19 @@
       <c r="F1519" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1520" s="1">
         <v>45988</v>
       </c>
       <c r="B1520" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="C1520" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="D1520" t="s">
         <v>644</v>
@@ -44604,16 +44777,19 @@
       <c r="F1520" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1521" s="1">
         <v>45988</v>
       </c>
       <c r="B1521" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="C1521" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="D1521" t="s">
         <v>34</v>
@@ -44624,16 +44800,19 @@
       <c r="F1521" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="1522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1522" s="1">
         <v>45988</v>
       </c>
       <c r="B1522" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="C1522" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="D1522" t="s">
         <v>34</v>
@@ -44644,16 +44823,19 @@
       <c r="F1522" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="1523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1523" s="1">
         <v>45988</v>
       </c>
       <c r="B1523" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="C1523" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="D1523" t="s">
         <v>47</v>
@@ -44664,16 +44846,19 @@
       <c r="F1523" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1524" s="1">
         <v>45988</v>
       </c>
       <c r="B1524" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="C1524" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="D1524" t="s">
         <v>116</v>
@@ -44684,16 +44869,19 @@
       <c r="F1524" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1525" s="1">
         <v>45988</v>
       </c>
       <c r="B1525" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
       <c r="C1525" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="D1525" t="s">
         <v>74</v>
@@ -44704,16 +44892,19 @@
       <c r="F1525" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1526" s="1">
         <v>45988</v>
       </c>
       <c r="B1526" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="C1526" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="D1526" t="s">
         <v>31</v>
@@ -44724,8 +44915,11 @@
       <c r="F1526" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1527" s="1">
         <v>45988</v>
       </c>
@@ -44744,16 +44938,19 @@
       <c r="F1527" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="1528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1528" s="1">
         <v>45988</v>
       </c>
       <c r="B1528" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="C1528" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="D1528" t="s">
         <v>74</v>
@@ -44764,16 +44961,19 @@
       <c r="F1528" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1529" s="1">
         <v>45988</v>
       </c>
       <c r="B1529" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="C1529" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="D1529" t="s">
         <v>74</v>
@@ -44783,6 +44983,101 @@
       </c>
       <c r="F1529" t="s">
         <v>28</v>
+      </c>
+      <c r="G1529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1530" s="1">
+        <v>45989</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>3127</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1530" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1531" s="1">
+        <v>45989</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>3128</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>3129</v>
+      </c>
+      <c r="D1531" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1531" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1531" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1532" s="1">
+        <v>45989</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>3131</v>
+      </c>
+      <c r="D1532" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1532" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1532" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1533" s="1">
+        <v>45989</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>3133</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1533" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1533" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1533">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/first-atlas/producao_2025-11.xlsx
+++ b/first-atlas/producao_2025-11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F479CB49-D698-4091-A567-6E9B59DFD10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B349BD07-6800-4CB5-8F94-AF6CEFC2C53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{3FA0812B-7F53-402D-BAE5-61E81C02CB4E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8058" uniqueCount="3276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8172" uniqueCount="3321">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -9867,6 +9867,141 @@
   </si>
   <si>
     <t xml:space="preserve">Contrato social da empresa GV EMERGENCIAS MEDICAS LTDA, atualizado e registrado no orgao competente, com a devida clausula de administracao. </t>
+  </si>
+  <si>
+    <t>22195665000130</t>
+  </si>
+  <si>
+    <t>DIAS SOLAR LTDA</t>
+  </si>
+  <si>
+    <t>62473788000100</t>
+  </si>
+  <si>
+    <t>EDUARDO RODRIGUES DE MEDEIROS</t>
+  </si>
+  <si>
+    <t>36906183000156</t>
+  </si>
+  <si>
+    <t>FERNANDA PATRAO INTERIORES LTDA</t>
+  </si>
+  <si>
+    <t>30728518000107</t>
+  </si>
+  <si>
+    <t>GSTM COSULTORIA E TREINAMENTO EM ENGENHARIA LTDA</t>
+  </si>
+  <si>
+    <t>22561649000114</t>
+  </si>
+  <si>
+    <t>CAROLINE ALVIM MAIA</t>
+  </si>
+  <si>
+    <t>22489622000168</t>
+  </si>
+  <si>
+    <t>22.489.622 JOELMA FREITAS DOS SANTOS</t>
+  </si>
+  <si>
+    <t>63421799000100</t>
+  </si>
+  <si>
+    <t>AQUILES &amp; MAXIMUS COMEDORIA LTDA</t>
+  </si>
+  <si>
+    <t>63487632000141</t>
+  </si>
+  <si>
+    <t>62732716000130</t>
+  </si>
+  <si>
+    <t>JARDER IMOVEIS - SERVICOS IMOBILIARIOS LIMITADA</t>
+  </si>
+  <si>
+    <t>22679809000124</t>
+  </si>
+  <si>
+    <t>22.679.809 BEATRIZ CELESTINA DA CRUZ</t>
+  </si>
+  <si>
+    <t>62648005000182</t>
+  </si>
+  <si>
+    <t>JUNG LOCACOES LTDA</t>
+  </si>
+  <si>
+    <t>03155212000136</t>
+  </si>
+  <si>
+    <t>ESCOLA MORONI LTDA</t>
+  </si>
+  <si>
+    <t>62742425000123</t>
+  </si>
+  <si>
+    <t>SUBLIJET BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>62732692000110</t>
+  </si>
+  <si>
+    <t>ANA FLAVIA GRIBEL SALES LTDA</t>
+  </si>
+  <si>
+    <t>54166653000174</t>
+  </si>
+  <si>
+    <t>ANDREA REGIANE DAMASCENO LTDA</t>
+  </si>
+  <si>
+    <t>62349415000122</t>
+  </si>
+  <si>
+    <t>J L CONSTRUCOES LTDA</t>
+  </si>
+  <si>
+    <t>62668142000189</t>
+  </si>
+  <si>
+    <t>AGROSOLUTIONS CONSULTORIA E COMERCIO DE PRODUTOS AGRICOLAS LTDA</t>
+  </si>
+  <si>
+    <t>63007871000157</t>
+  </si>
+  <si>
+    <t>BRUNO MAGALHAES SILVA</t>
+  </si>
+  <si>
+    <t>63048141000102</t>
+  </si>
+  <si>
+    <t>OTICA ROSE PERES LTDA</t>
+  </si>
+  <si>
+    <t>63517250000113</t>
+  </si>
+  <si>
+    <t>ANA C RM ALIMENTOS E EVENTOS LTDA</t>
+  </si>
+  <si>
+    <t>62183278000107</t>
+  </si>
+  <si>
+    <t>J P F GUIMARAES LTDA</t>
+  </si>
+  <si>
+    <t>63577045000143</t>
+  </si>
+  <si>
+    <t>D VASCONCELOS PIZZARIA BOLO E LANCHONETE LTDA</t>
+  </si>
+  <si>
+    <t>63283409000182</t>
+  </si>
+  <si>
+    <t>APPLE ONE LTDA</t>
   </si>
 </sst>
 </file>
@@ -9908,7 +10043,168 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -10238,10 +10534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCD3CE2-DBA2-4F4F-B6A3-11EE884EA727}">
-  <dimension ref="A1:G1604"/>
+  <dimension ref="A1:G1627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47139,6 +47435,463 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1605" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1605" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>3276</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>3277</v>
+      </c>
+      <c r="D1605" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1605" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1605" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1606" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>3278</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>3279</v>
+      </c>
+      <c r="D1606" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1606" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1606" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1607" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>3280</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>3281</v>
+      </c>
+      <c r="D1607" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1607" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1607" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1608" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>3283</v>
+      </c>
+      <c r="D1608" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1608" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1608" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1609" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>3284</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>3285</v>
+      </c>
+      <c r="D1609" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1609" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1609" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1610" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>3287</v>
+      </c>
+      <c r="D1610" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1610" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1610" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1611" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>3288</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>3289</v>
+      </c>
+      <c r="D1611" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1611" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1611" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1612" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>3290</v>
+      </c>
+      <c r="D1612" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1612" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1612" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1613" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D1613" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1613" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1613" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1614" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>3294</v>
+      </c>
+      <c r="D1614" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1614" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1614" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1615" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D1615" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1615" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1615" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1616" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>3298</v>
+      </c>
+      <c r="D1616" t="s">
+        <v>644</v>
+      </c>
+      <c r="E1616" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1616" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1617" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>3299</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>3300</v>
+      </c>
+      <c r="D1617" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1617" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1617" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1618" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>3302</v>
+      </c>
+      <c r="D1618" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1618" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1618" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1619" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>3303</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>3304</v>
+      </c>
+      <c r="D1619" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1619" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1619" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1620" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>3305</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D1620" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1620" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1620" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1621" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>3307</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D1621" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1621" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1621" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1622" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>3309</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>3310</v>
+      </c>
+      <c r="D1622" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1622" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1622" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1623" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>3311</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>3312</v>
+      </c>
+      <c r="D1623" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1623" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1623" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1624" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>3314</v>
+      </c>
+      <c r="D1624" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1624" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1624" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1625" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>3315</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>3316</v>
+      </c>
+      <c r="D1625" t="s">
+        <v>644</v>
+      </c>
+      <c r="E1625" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1625" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1626" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>3317</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>3318</v>
+      </c>
+      <c r="D1626" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1626" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1626" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1627" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>3319</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>3320</v>
+      </c>
+      <c r="D1627" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1627" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1627" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
